--- a/ai_sustainability/datas/Weight_matrix.xlsx
+++ b/ai_sustainability/datas/Weight_matrix.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hennecarta\Documents\Graph_decision_AI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9452555-03EF-4AA6-A965-10ABF416722C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{493A6789-CF79-4A41-A365-EE85DCA5A891}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{AC26B5E7-4148-4700-AAF1-8A62823EFFAF}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="96">
   <si>
     <t>id_edges</t>
   </si>
@@ -261,9 +261,6 @@
   </si>
   <si>
     <t>That a false thing is considered true.</t>
-  </si>
-  <si>
-    <t>Balanced.</t>
   </si>
   <si>
     <t>Object detection</t>
@@ -368,12 +365,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -690,8 +694,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65B3A90E-CD1F-4942-85BC-B8033B44D3A6}">
   <dimension ref="A1:X41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -762,10 +766,10 @@
         <v>18</v>
       </c>
       <c r="U1" t="s">
+        <v>94</v>
+      </c>
+      <c r="V1" t="s">
         <v>95</v>
-      </c>
-      <c r="V1" t="s">
-        <v>96</v>
       </c>
       <c r="W1" t="s">
         <v>19</v>
@@ -779,7 +783,7 @@
         <v>21</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -929,20 +933,20 @@
       <c r="B4" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C4" t="s">
-        <v>94</v>
-      </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-      <c r="E4" t="s">
-        <v>94</v>
-      </c>
-      <c r="F4" t="s">
-        <v>94</v>
-      </c>
-      <c r="G4" t="s">
-        <v>94</v>
+      <c r="C4" s="4">
+        <v>1</v>
+      </c>
+      <c r="D4" s="3">
+        <v>1</v>
+      </c>
+      <c r="E4" s="4">
+        <v>1</v>
+      </c>
+      <c r="F4" s="4">
+        <v>1</v>
+      </c>
+      <c r="G4" s="4">
+        <v>1</v>
       </c>
       <c r="H4">
         <v>1</v>
@@ -1012,7 +1016,7 @@
       <c r="E5">
         <v>1</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="5">
         <v>1</v>
       </c>
       <c r="G5">
@@ -1460,7 +1464,7 @@
         <v>0.89083333333333337</v>
       </c>
       <c r="G11">
-        <v>0.36916666666666675</v>
+        <v>0.36916666666666698</v>
       </c>
       <c r="H11">
         <v>0.82208333333333339</v>
@@ -1549,7 +1553,7 @@
         <v>0.96891444999999998</v>
       </c>
       <c r="L12">
-        <v>0.99506003333333337</v>
+        <v>0.99506003333333304</v>
       </c>
       <c r="M12">
         <v>1</v>
@@ -1558,7 +1562,7 @@
         <v>0.96574611666666699</v>
       </c>
       <c r="O12">
-        <v>0.9959098666666667</v>
+        <v>0.99590986666666703</v>
       </c>
       <c r="P12">
         <v>0</v>
@@ -1596,43 +1600,56 @@
         <v>72</v>
       </c>
       <c r="C13">
+        <f>(C12+C11)/2</f>
         <v>0.63453822500000001</v>
       </c>
       <c r="D13">
+        <f t="shared" ref="D13:O13" si="0">(D12+D11)/2</f>
         <v>0.93273422500000003</v>
       </c>
       <c r="E13">
+        <f t="shared" si="0"/>
         <v>0.51525589166666674</v>
       </c>
       <c r="F13">
+        <f t="shared" si="0"/>
         <v>0.92715114166666668</v>
       </c>
       <c r="G13">
+        <f t="shared" si="0"/>
         <v>0.51525589166666674</v>
       </c>
       <c r="H13">
+        <f t="shared" si="0"/>
         <v>0.88546422499999999</v>
       </c>
       <c r="I13">
+        <f t="shared" si="0"/>
         <v>0.91338089166666669</v>
       </c>
       <c r="J13">
+        <f t="shared" si="0"/>
         <v>0.96010309999999999</v>
       </c>
       <c r="K13">
+        <f t="shared" si="0"/>
         <v>0.93654055833333327</v>
       </c>
       <c r="L13">
-        <v>0.99753001666666674</v>
+        <f t="shared" si="0"/>
+        <v>0.99753001666666652</v>
       </c>
       <c r="M13">
+        <f t="shared" si="0"/>
         <v>0.99437500000000001</v>
       </c>
       <c r="N13">
-        <v>0.91953972499999992</v>
+        <f t="shared" si="0"/>
+        <v>0.91953972500000014</v>
       </c>
       <c r="O13">
-        <v>0.99107993333333333</v>
+        <f t="shared" si="0"/>
+        <v>0.99107993333333355</v>
       </c>
       <c r="P13">
         <v>0</v>
@@ -1815,7 +1832,7 @@
         <v>66</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C16">
         <v>1</v>
@@ -2037,7 +2054,7 @@
         <v>44</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C19">
         <v>0</v>
@@ -2079,7 +2096,7 @@
         <v>0</v>
       </c>
       <c r="P19">
-        <v>0.46468986111111116</v>
+        <v>0.46468986111111099</v>
       </c>
       <c r="Q19">
         <v>0.51031225694444438</v>
@@ -2259,7 +2276,7 @@
         <v>41</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C22">
         <v>0</v>
@@ -2333,7 +2350,7 @@
         <v>47</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C23">
         <v>0</v>
@@ -2407,7 +2424,7 @@
         <v>48</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C24">
         <v>0</v>
@@ -2481,7 +2498,7 @@
         <v>49</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C25">
         <v>0</v>
@@ -2555,7 +2572,7 @@
         <v>50</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C26">
         <v>1</v>
@@ -2629,94 +2646,94 @@
         <v>51</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C27">
         <f>C26*C13</f>
         <v>0.63453822500000001</v>
       </c>
       <c r="D27">
-        <f t="shared" ref="D27:O27" si="0">D26*D13</f>
+        <f t="shared" ref="D27:O27" si="1">D26*D13</f>
         <v>0.93273422500000003</v>
       </c>
       <c r="E27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.51525589166666674</v>
       </c>
       <c r="F27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.92715114166666668</v>
       </c>
       <c r="G27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.46373030250000008</v>
       </c>
       <c r="H27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.2656392675</v>
       </c>
       <c r="I27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.18267617833333336</v>
       </c>
       <c r="J27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.57606185999999993</v>
       </c>
       <c r="K27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.84288650249999997</v>
       </c>
       <c r="L27">
-        <f t="shared" si="0"/>
-        <v>0.99753001666666674</v>
+        <f t="shared" si="1"/>
+        <v>0.99753001666666652</v>
       </c>
       <c r="M27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.99437500000000001</v>
       </c>
       <c r="N27">
-        <f t="shared" si="0"/>
-        <v>0.91953972499999992</v>
+        <f t="shared" si="1"/>
+        <v>0.91953972500000014</v>
       </c>
       <c r="O27">
-        <f t="shared" si="0"/>
-        <v>0.59464795999999998</v>
+        <f t="shared" si="1"/>
+        <v>0.59464796000000009</v>
       </c>
       <c r="P27">
-        <f t="shared" ref="D27:X27" si="1">P26*P28</f>
+        <f t="shared" ref="D27:X27" si="2">P26*P28</f>
         <v>0.41822087500000005</v>
       </c>
       <c r="Q27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.10206245138888888</v>
       </c>
       <c r="R27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.52973999999999988</v>
       </c>
       <c r="S27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.18161244444444449</v>
       </c>
       <c r="T27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.15767274374999996</v>
       </c>
       <c r="U27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.54629152777777779</v>
       </c>
       <c r="V27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.54629152777777779</v>
       </c>
       <c r="W27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.36465800000000009</v>
       </c>
       <c r="X27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.32501071666666664</v>
       </c>
     </row>
@@ -2725,7 +2742,7 @@
         <v>52</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C28">
         <v>1</v>
@@ -2947,7 +2964,7 @@
         <v>54</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C31">
         <v>1</v>
@@ -3021,7 +3038,7 @@
         <v>55</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C32">
         <v>1</v>
@@ -3095,7 +3112,7 @@
         <v>56</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C33">
         <v>1</v>
@@ -3169,7 +3186,7 @@
         <v>57</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C34">
         <v>1</v>
@@ -3243,7 +3260,7 @@
         <v>58</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C35">
         <v>1</v>
@@ -3317,7 +3334,7 @@
         <v>60</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C36">
         <v>1</v>
@@ -3391,7 +3408,7 @@
         <v>61</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C37">
         <v>1</v>
@@ -3465,7 +3482,7 @@
         <v>62</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C38">
         <v>1</v>
@@ -3539,7 +3556,7 @@
         <v>63</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C39">
         <v>1</v>
@@ -3613,7 +3630,7 @@
         <v>64</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C40">
         <v>1</v>
@@ -3687,7 +3704,7 @@
         <v>65</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C41">
         <v>1</v>

--- a/ai_sustainability/datas/Weight_matrix.xlsx
+++ b/ai_sustainability/datas/Weight_matrix.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hennecarta\Documents\Graph_decision_AI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{493A6789-CF79-4A41-A365-EE85DCA5A891}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D92CBE40-2208-42AF-AA43-19482C3F012B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{AC26B5E7-4148-4700-AAF1-8A62823EFFAF}"/>
+    <workbookView xWindow="-60" yWindow="-16320" windowWidth="29040" windowHeight="16440" xr2:uid="{AC26B5E7-4148-4700-AAF1-8A62823EFFAF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="101">
   <si>
     <t>id_edges</t>
   </si>
@@ -324,6 +324,21 @@
   </si>
   <si>
     <t>Gradient Boosting Machine (LightGBM) with binary crossentropy loss for classification</t>
+  </si>
+  <si>
+    <t>MobileNetV3Small</t>
+  </si>
+  <si>
+    <t>RegNetY080</t>
+  </si>
+  <si>
+    <t>ConvNeXtSmall</t>
+  </si>
+  <si>
+    <t>EfficientNetB0</t>
+  </si>
+  <si>
+    <t>EfficientNetV2S</t>
   </si>
 </sst>
 </file>
@@ -692,19 +707,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65B3A90E-CD1F-4942-85BC-B8033B44D3A6}">
-  <dimension ref="A1:X41"/>
+  <dimension ref="A1:AD41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="S6" sqref="S6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="14.21875" style="1" customWidth="1"/>
     <col min="2" max="2" width="23.5546875" style="2" customWidth="1"/>
+    <col min="25" max="30" width="8.88671875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -777,8 +793,23 @@
       <c r="X1" t="s">
         <v>20</v>
       </c>
+      <c r="Y1" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="Z1" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="AA1" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="AB1" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="AC1" s="3" t="s">
+        <v>100</v>
+      </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>21</v>
       </c>
@@ -851,8 +882,23 @@
       <c r="X2">
         <v>1</v>
       </c>
+      <c r="Y2" s="3">
+        <v>1</v>
+      </c>
+      <c r="Z2" s="3">
+        <v>1</v>
+      </c>
+      <c r="AA2" s="3">
+        <v>1</v>
+      </c>
+      <c r="AB2" s="3">
+        <v>1</v>
+      </c>
+      <c r="AC2" s="3">
+        <v>1</v>
+      </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>22</v>
       </c>
@@ -925,8 +971,23 @@
       <c r="X3">
         <v>1</v>
       </c>
+      <c r="Y3" s="3">
+        <v>1</v>
+      </c>
+      <c r="Z3" s="3">
+        <v>1</v>
+      </c>
+      <c r="AA3" s="3">
+        <v>1</v>
+      </c>
+      <c r="AB3" s="3">
+        <v>1</v>
+      </c>
+      <c r="AC3" s="3">
+        <v>1</v>
+      </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>23</v>
       </c>
@@ -999,8 +1060,23 @@
       <c r="X4">
         <v>0</v>
       </c>
+      <c r="Y4" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z4" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA4" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB4" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC4" s="3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>24</v>
       </c>
@@ -1073,8 +1149,23 @@
       <c r="X5">
         <v>1</v>
       </c>
+      <c r="Y5" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z5" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA5" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB5" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC5" s="3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>25</v>
       </c>
@@ -1147,8 +1238,23 @@
       <c r="X6">
         <v>0</v>
       </c>
+      <c r="Y6" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z6" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA6" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB6" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC6" s="3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>26</v>
       </c>
@@ -1221,8 +1327,23 @@
       <c r="X7">
         <v>0</v>
       </c>
+      <c r="Y7" s="3">
+        <v>1</v>
+      </c>
+      <c r="Z7" s="3">
+        <v>1</v>
+      </c>
+      <c r="AA7" s="3">
+        <v>1</v>
+      </c>
+      <c r="AB7" s="3">
+        <v>1</v>
+      </c>
+      <c r="AC7" s="3">
+        <v>1</v>
+      </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>29</v>
       </c>
@@ -1295,8 +1416,23 @@
       <c r="X8">
         <v>0</v>
       </c>
+      <c r="Y8" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z8" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA8" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB8" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC8" s="3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>28</v>
       </c>
@@ -1369,8 +1505,23 @@
       <c r="X9">
         <v>1</v>
       </c>
+      <c r="Y9" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z9" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA9" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB9" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC9" s="3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>30</v>
       </c>
@@ -1443,8 +1594,23 @@
       <c r="X10">
         <v>1</v>
       </c>
+      <c r="Y10" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z10" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA10" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB10" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC10" s="3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>27</v>
       </c>
@@ -1517,8 +1683,23 @@
       <c r="X11">
         <v>0</v>
       </c>
+      <c r="Y11" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z11" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA11" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB11" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC11" s="3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>37</v>
       </c>
@@ -1591,8 +1772,23 @@
       <c r="X12">
         <v>0</v>
       </c>
+      <c r="Y12" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z12" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA12" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB12" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC12" s="3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>38</v>
       </c>
@@ -1678,8 +1874,23 @@
       <c r="X13">
         <v>0</v>
       </c>
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC13" s="3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>40</v>
       </c>
@@ -1752,8 +1963,23 @@
       <c r="X14">
         <v>1</v>
       </c>
+      <c r="Y14" s="3">
+        <v>1</v>
+      </c>
+      <c r="Z14" s="3">
+        <v>1</v>
+      </c>
+      <c r="AA14" s="3">
+        <v>1</v>
+      </c>
+      <c r="AB14" s="3">
+        <v>1</v>
+      </c>
+      <c r="AC14" s="3">
+        <v>1</v>
+      </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>39</v>
       </c>
@@ -1826,8 +2052,23 @@
       <c r="X15">
         <v>1</v>
       </c>
+      <c r="Y15" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="Z15" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="AA15" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="AB15" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="AC15" s="3" t="s">
+        <v>93</v>
+      </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>66</v>
       </c>
@@ -1900,8 +2141,23 @@
       <c r="X16">
         <v>1</v>
       </c>
+      <c r="Y16" s="3">
+        <v>1</v>
+      </c>
+      <c r="Z16" s="3">
+        <v>1</v>
+      </c>
+      <c r="AA16" s="3">
+        <v>1</v>
+      </c>
+      <c r="AB16" s="3">
+        <v>1</v>
+      </c>
+      <c r="AC16" s="3">
+        <v>1</v>
+      </c>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>42</v>
       </c>
@@ -1974,8 +2230,23 @@
       <c r="X17">
         <v>0.87656656419957435</v>
       </c>
+      <c r="Y17" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="Z17" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="AA17" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="AB17" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="AC17" s="3" t="s">
+        <v>93</v>
+      </c>
     </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>43</v>
       </c>
@@ -2048,8 +2319,23 @@
       <c r="X18">
         <v>0.86491557223264537</v>
       </c>
+      <c r="Y18" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="Z18" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="AA18" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="AB18" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="AC18" s="3" t="s">
+        <v>93</v>
+      </c>
     </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>44</v>
       </c>
@@ -2122,8 +2408,23 @@
       <c r="X19">
         <v>0.54168452777777776</v>
       </c>
+      <c r="Y19" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="Z19" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="AA19" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="AB19" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="AC19" s="3" t="s">
+        <v>93</v>
+      </c>
     </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>45</v>
       </c>
@@ -2196,8 +2497,23 @@
       <c r="X20">
         <v>0</v>
       </c>
+      <c r="Y20" s="3">
+        <v>1</v>
+      </c>
+      <c r="Z20" s="3">
+        <v>1</v>
+      </c>
+      <c r="AA20" s="3">
+        <v>1</v>
+      </c>
+      <c r="AB20" s="3">
+        <v>1</v>
+      </c>
+      <c r="AC20" s="3">
+        <v>1</v>
+      </c>
     </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>46</v>
       </c>
@@ -2270,8 +2586,23 @@
       <c r="X21">
         <v>0</v>
       </c>
+      <c r="Y21" s="3">
+        <v>1</v>
+      </c>
+      <c r="Z21" s="3">
+        <v>1</v>
+      </c>
+      <c r="AA21" s="3">
+        <v>1</v>
+      </c>
+      <c r="AB21" s="3">
+        <v>1</v>
+      </c>
+      <c r="AC21" s="3">
+        <v>1</v>
+      </c>
     </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>41</v>
       </c>
@@ -2344,8 +2675,23 @@
       <c r="X22">
         <v>0</v>
       </c>
+      <c r="Y22" s="3">
+        <v>1</v>
+      </c>
+      <c r="Z22" s="3">
+        <v>1</v>
+      </c>
+      <c r="AA22" s="3">
+        <v>1</v>
+      </c>
+      <c r="AB22" s="3">
+        <v>1</v>
+      </c>
+      <c r="AC22" s="3">
+        <v>1</v>
+      </c>
     </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>47</v>
       </c>
@@ -2418,8 +2764,23 @@
       <c r="X23">
         <v>0</v>
       </c>
+      <c r="Y23" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z23" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA23" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB23" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC23" s="3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>48</v>
       </c>
@@ -2492,8 +2853,23 @@
       <c r="X24">
         <v>0</v>
       </c>
+      <c r="Y24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC24" s="3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>49</v>
       </c>
@@ -2566,8 +2942,23 @@
       <c r="X25">
         <v>0</v>
       </c>
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC25" s="3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>50</v>
       </c>
@@ -2640,8 +3031,23 @@
       <c r="X26">
         <v>0.6</v>
       </c>
+      <c r="Y26" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="Z26" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="AA26" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="AB26" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="AC26" s="3" t="s">
+        <v>93</v>
+      </c>
     </row>
-    <row r="27" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>51</v>
       </c>
@@ -2736,8 +3142,23 @@
         <f t="shared" si="2"/>
         <v>0.32501071666666664</v>
       </c>
+      <c r="Y27" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="Z27" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="AA27" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="AB27" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="AC27" s="3" t="s">
+        <v>93</v>
+      </c>
     </row>
-    <row r="28" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>52</v>
       </c>
@@ -2810,8 +3231,23 @@
       <c r="X28">
         <v>0.54168452777777776</v>
       </c>
+      <c r="Y28" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="Z28" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="AA28" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="AB28" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="AC28" s="3" t="s">
+        <v>93</v>
+      </c>
     </row>
-    <row r="29" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>59</v>
       </c>
@@ -2884,8 +3320,23 @@
       <c r="X29">
         <v>1</v>
       </c>
+      <c r="Y29" s="3">
+        <v>1</v>
+      </c>
+      <c r="Z29" s="3">
+        <v>1</v>
+      </c>
+      <c r="AA29" s="3">
+        <v>1</v>
+      </c>
+      <c r="AB29" s="3">
+        <v>1</v>
+      </c>
+      <c r="AC29" s="3">
+        <v>1</v>
+      </c>
     </row>
-    <row r="30" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>53</v>
       </c>
@@ -2958,8 +3409,23 @@
       <c r="X30">
         <v>1</v>
       </c>
+      <c r="Y30" s="3">
+        <v>1</v>
+      </c>
+      <c r="Z30" s="3">
+        <v>1</v>
+      </c>
+      <c r="AA30" s="3">
+        <v>1</v>
+      </c>
+      <c r="AB30" s="3">
+        <v>1</v>
+      </c>
+      <c r="AC30" s="3">
+        <v>1</v>
+      </c>
     </row>
-    <row r="31" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>54</v>
       </c>
@@ -3032,8 +3498,23 @@
       <c r="X31">
         <v>1</v>
       </c>
+      <c r="Y31" s="3">
+        <v>1</v>
+      </c>
+      <c r="Z31" s="3">
+        <v>1</v>
+      </c>
+      <c r="AA31" s="3">
+        <v>1</v>
+      </c>
+      <c r="AB31" s="3">
+        <v>1</v>
+      </c>
+      <c r="AC31" s="3">
+        <v>1</v>
+      </c>
     </row>
-    <row r="32" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>55</v>
       </c>
@@ -3106,8 +3587,23 @@
       <c r="X32">
         <v>1</v>
       </c>
+      <c r="Y32" s="3">
+        <v>1</v>
+      </c>
+      <c r="Z32" s="3">
+        <v>1</v>
+      </c>
+      <c r="AA32" s="3">
+        <v>1</v>
+      </c>
+      <c r="AB32" s="3">
+        <v>1</v>
+      </c>
+      <c r="AC32" s="3">
+        <v>1</v>
+      </c>
     </row>
-    <row r="33" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>56</v>
       </c>
@@ -3180,8 +3676,23 @@
       <c r="X33">
         <v>1</v>
       </c>
+      <c r="Y33" s="3">
+        <v>1</v>
+      </c>
+      <c r="Z33" s="3">
+        <v>1</v>
+      </c>
+      <c r="AA33" s="3">
+        <v>1</v>
+      </c>
+      <c r="AB33" s="3">
+        <v>1</v>
+      </c>
+      <c r="AC33" s="3">
+        <v>1</v>
+      </c>
     </row>
-    <row r="34" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>57</v>
       </c>
@@ -3254,8 +3765,23 @@
       <c r="X34">
         <v>1</v>
       </c>
+      <c r="Y34" s="3">
+        <v>1</v>
+      </c>
+      <c r="Z34" s="3">
+        <v>1</v>
+      </c>
+      <c r="AA34" s="3">
+        <v>1</v>
+      </c>
+      <c r="AB34" s="3">
+        <v>1</v>
+      </c>
+      <c r="AC34" s="3">
+        <v>1</v>
+      </c>
     </row>
-    <row r="35" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>58</v>
       </c>
@@ -3328,8 +3854,23 @@
       <c r="X35">
         <v>1</v>
       </c>
+      <c r="Y35" s="3">
+        <v>1</v>
+      </c>
+      <c r="Z35" s="3">
+        <v>1</v>
+      </c>
+      <c r="AA35" s="3">
+        <v>1</v>
+      </c>
+      <c r="AB35" s="3">
+        <v>1</v>
+      </c>
+      <c r="AC35" s="3">
+        <v>1</v>
+      </c>
     </row>
-    <row r="36" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>60</v>
       </c>
@@ -3402,8 +3943,23 @@
       <c r="X36">
         <v>1</v>
       </c>
+      <c r="Y36" s="3">
+        <v>1</v>
+      </c>
+      <c r="Z36" s="3">
+        <v>1</v>
+      </c>
+      <c r="AA36" s="3">
+        <v>1</v>
+      </c>
+      <c r="AB36" s="3">
+        <v>1</v>
+      </c>
+      <c r="AC36" s="3">
+        <v>1</v>
+      </c>
     </row>
-    <row r="37" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>61</v>
       </c>
@@ -3476,8 +4032,23 @@
       <c r="X37">
         <v>1</v>
       </c>
+      <c r="Y37" s="3">
+        <v>1</v>
+      </c>
+      <c r="Z37" s="3">
+        <v>1</v>
+      </c>
+      <c r="AA37" s="3">
+        <v>1</v>
+      </c>
+      <c r="AB37" s="3">
+        <v>1</v>
+      </c>
+      <c r="AC37" s="3">
+        <v>1</v>
+      </c>
     </row>
-    <row r="38" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>62</v>
       </c>
@@ -3550,8 +4121,23 @@
       <c r="X38">
         <v>1</v>
       </c>
+      <c r="Y38" s="3">
+        <v>1</v>
+      </c>
+      <c r="Z38" s="3">
+        <v>1</v>
+      </c>
+      <c r="AA38" s="3">
+        <v>1</v>
+      </c>
+      <c r="AB38" s="3">
+        <v>1</v>
+      </c>
+      <c r="AC38" s="3">
+        <v>1</v>
+      </c>
     </row>
-    <row r="39" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>63</v>
       </c>
@@ -3624,8 +4210,23 @@
       <c r="X39">
         <v>1</v>
       </c>
+      <c r="Y39" s="3">
+        <v>1</v>
+      </c>
+      <c r="Z39" s="3">
+        <v>1</v>
+      </c>
+      <c r="AA39" s="3">
+        <v>1</v>
+      </c>
+      <c r="AB39" s="3">
+        <v>1</v>
+      </c>
+      <c r="AC39" s="3">
+        <v>1</v>
+      </c>
     </row>
-    <row r="40" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>64</v>
       </c>
@@ -3698,8 +4299,23 @@
       <c r="X40">
         <v>1</v>
       </c>
+      <c r="Y40" s="3">
+        <v>1</v>
+      </c>
+      <c r="Z40" s="3">
+        <v>1</v>
+      </c>
+      <c r="AA40" s="3">
+        <v>1</v>
+      </c>
+      <c r="AB40" s="3">
+        <v>1</v>
+      </c>
+      <c r="AC40" s="3">
+        <v>1</v>
+      </c>
     </row>
-    <row r="41" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>65</v>
       </c>
@@ -3770,6 +4386,21 @@
         <v>1</v>
       </c>
       <c r="X41">
+        <v>1</v>
+      </c>
+      <c r="Y41" s="3">
+        <v>1</v>
+      </c>
+      <c r="Z41" s="3">
+        <v>1</v>
+      </c>
+      <c r="AA41" s="3">
+        <v>1</v>
+      </c>
+      <c r="AB41" s="3">
+        <v>1</v>
+      </c>
+      <c r="AC41" s="3">
         <v>1</v>
       </c>
     </row>

--- a/ai_sustainability/datas/Weight_matrix.xlsx
+++ b/ai_sustainability/datas/Weight_matrix.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hennecarta\Documents\Graph_decision_AI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D92CBE40-2208-42AF-AA43-19482C3F012B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97F2D588-77F5-4EF0-9568-D763D65E7E46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-60" yWindow="-16320" windowWidth="29040" windowHeight="16440" xr2:uid="{AC26B5E7-4148-4700-AAF1-8A62823EFFAF}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="109">
   <si>
     <t>id_edges</t>
   </si>
@@ -329,9 +329,6 @@
     <t>MobileNetV3Small</t>
   </si>
   <si>
-    <t>RegNetY080</t>
-  </si>
-  <si>
     <t>ConvNeXtSmall</t>
   </si>
   <si>
@@ -339,6 +336,33 @@
   </si>
   <si>
     <t>EfficientNetV2S</t>
+  </si>
+  <si>
+    <t>Faster R-CNN</t>
+  </si>
+  <si>
+    <t>RetinaNet</t>
+  </si>
+  <si>
+    <t>YOLOv3</t>
+  </si>
+  <si>
+    <t>YOLOv4</t>
+  </si>
+  <si>
+    <t>YOLOv5</t>
+  </si>
+  <si>
+    <t>YOLOR</t>
+  </si>
+  <si>
+    <t>YOLOX</t>
+  </si>
+  <si>
+    <t>LightGBM for image (only small dataset)</t>
+  </si>
+  <si>
+    <t>Regnety080</t>
   </si>
 </sst>
 </file>
@@ -707,10 +731,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65B3A90E-CD1F-4942-85BC-B8033B44D3A6}">
-  <dimension ref="A1:AD41"/>
+  <dimension ref="A1:AK41"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="S6" sqref="S6"/>
+      <selection activeCell="N28" sqref="N28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -720,7 +744,7 @@
     <col min="25" max="30" width="8.88671875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -793,23 +817,47 @@
       <c r="X1" t="s">
         <v>20</v>
       </c>
-      <c r="Y1" s="3" t="s">
+      <c r="Y1" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="Z1" s="3" t="s">
+      <c r="Z1" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="AA1" s="3" t="s">
+      <c r="AA1" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="AB1" s="3" t="s">
+      <c r="AB1" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="AC1" s="3" t="s">
+      <c r="AC1" t="s">
+        <v>108</v>
+      </c>
+      <c r="AD1" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="AE1" s="2" t="s">
         <v>100</v>
       </c>
+      <c r="AF1" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="AG1" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="AH1" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="AI1" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="AJ1" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="AK1" s="2" t="s">
+        <v>106</v>
+      </c>
     </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>21</v>
       </c>
@@ -897,8 +945,32 @@
       <c r="AC2" s="3">
         <v>1</v>
       </c>
+      <c r="AD2" s="3">
+        <v>1</v>
+      </c>
+      <c r="AE2" s="3">
+        <v>1</v>
+      </c>
+      <c r="AF2" s="3">
+        <v>1</v>
+      </c>
+      <c r="AG2" s="3">
+        <v>1</v>
+      </c>
+      <c r="AH2" s="3">
+        <v>1</v>
+      </c>
+      <c r="AI2" s="3">
+        <v>1</v>
+      </c>
+      <c r="AJ2" s="3">
+        <v>1</v>
+      </c>
+      <c r="AK2" s="3">
+        <v>1</v>
+      </c>
     </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>22</v>
       </c>
@@ -986,8 +1058,32 @@
       <c r="AC3" s="3">
         <v>1</v>
       </c>
+      <c r="AD3" s="3">
+        <v>1</v>
+      </c>
+      <c r="AE3" s="3">
+        <v>1</v>
+      </c>
+      <c r="AF3" s="3">
+        <v>1</v>
+      </c>
+      <c r="AG3" s="3">
+        <v>1</v>
+      </c>
+      <c r="AH3" s="3">
+        <v>1</v>
+      </c>
+      <c r="AI3" s="3">
+        <v>1</v>
+      </c>
+      <c r="AJ3" s="3">
+        <v>1</v>
+      </c>
+      <c r="AK3" s="3">
+        <v>1</v>
+      </c>
     </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>23</v>
       </c>
@@ -1075,8 +1171,32 @@
       <c r="AC4" s="3">
         <v>0</v>
       </c>
+      <c r="AD4" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE4" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF4" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG4" s="3">
+        <v>0</v>
+      </c>
+      <c r="AH4" s="3">
+        <v>0</v>
+      </c>
+      <c r="AI4" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ4" s="3">
+        <v>0</v>
+      </c>
+      <c r="AK4" s="3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>24</v>
       </c>
@@ -1164,8 +1284,32 @@
       <c r="AC5" s="3">
         <v>0</v>
       </c>
+      <c r="AD5" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE5" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF5" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG5" s="3">
+        <v>0</v>
+      </c>
+      <c r="AH5" s="3">
+        <v>0</v>
+      </c>
+      <c r="AI5" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ5" s="3">
+        <v>0</v>
+      </c>
+      <c r="AK5" s="3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>25</v>
       </c>
@@ -1253,8 +1397,32 @@
       <c r="AC6" s="3">
         <v>0</v>
       </c>
+      <c r="AD6" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE6" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF6" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG6" s="3">
+        <v>0</v>
+      </c>
+      <c r="AH6" s="3">
+        <v>0</v>
+      </c>
+      <c r="AI6" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ6" s="3">
+        <v>0</v>
+      </c>
+      <c r="AK6" s="3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>26</v>
       </c>
@@ -1342,8 +1510,32 @@
       <c r="AC7" s="3">
         <v>1</v>
       </c>
+      <c r="AD7" s="3">
+        <v>1</v>
+      </c>
+      <c r="AE7" s="3">
+        <v>1</v>
+      </c>
+      <c r="AF7" s="3">
+        <v>1</v>
+      </c>
+      <c r="AG7" s="3">
+        <v>1</v>
+      </c>
+      <c r="AH7" s="3">
+        <v>1</v>
+      </c>
+      <c r="AI7" s="3">
+        <v>1</v>
+      </c>
+      <c r="AJ7" s="3">
+        <v>1</v>
+      </c>
+      <c r="AK7" s="3">
+        <v>1</v>
+      </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>29</v>
       </c>
@@ -1431,8 +1623,32 @@
       <c r="AC8" s="3">
         <v>0</v>
       </c>
+      <c r="AD8" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE8" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF8" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG8" s="3">
+        <v>0</v>
+      </c>
+      <c r="AH8" s="3">
+        <v>0</v>
+      </c>
+      <c r="AI8" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ8" s="3">
+        <v>0</v>
+      </c>
+      <c r="AK8" s="3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>28</v>
       </c>
@@ -1520,8 +1736,32 @@
       <c r="AC9" s="3">
         <v>0</v>
       </c>
+      <c r="AD9" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE9" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF9" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG9" s="3">
+        <v>0</v>
+      </c>
+      <c r="AH9" s="3">
+        <v>0</v>
+      </c>
+      <c r="AI9" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ9" s="3">
+        <v>0</v>
+      </c>
+      <c r="AK9" s="3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>30</v>
       </c>
@@ -1609,8 +1849,32 @@
       <c r="AC10" s="3">
         <v>0</v>
       </c>
+      <c r="AD10" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE10" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF10" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG10" s="3">
+        <v>0</v>
+      </c>
+      <c r="AH10" s="3">
+        <v>0</v>
+      </c>
+      <c r="AI10" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ10" s="3">
+        <v>0</v>
+      </c>
+      <c r="AK10" s="3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>27</v>
       </c>
@@ -1698,8 +1962,32 @@
       <c r="AC11" s="3">
         <v>0</v>
       </c>
+      <c r="AD11" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE11" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF11" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG11" s="3">
+        <v>0</v>
+      </c>
+      <c r="AH11" s="3">
+        <v>0</v>
+      </c>
+      <c r="AI11" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ11" s="3">
+        <v>0</v>
+      </c>
+      <c r="AK11" s="3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>37</v>
       </c>
@@ -1787,8 +2075,32 @@
       <c r="AC12" s="3">
         <v>0</v>
       </c>
+      <c r="AD12" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE12" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF12" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG12" s="3">
+        <v>0</v>
+      </c>
+      <c r="AH12" s="3">
+        <v>0</v>
+      </c>
+      <c r="AI12" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ12" s="3">
+        <v>0</v>
+      </c>
+      <c r="AK12" s="3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>38</v>
       </c>
@@ -1889,8 +2201,32 @@
       <c r="AC13" s="3">
         <v>0</v>
       </c>
+      <c r="AD13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AH13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AI13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AK13" s="3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>40</v>
       </c>
@@ -1978,8 +2314,32 @@
       <c r="AC14" s="3">
         <v>1</v>
       </c>
+      <c r="AD14" s="3">
+        <v>1</v>
+      </c>
+      <c r="AE14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AH14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AI14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AK14" s="3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>39</v>
       </c>
@@ -2067,8 +2427,32 @@
       <c r="AC15" s="3" t="s">
         <v>93</v>
       </c>
+      <c r="AD15" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="AE15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AH15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AI15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AK15" s="3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>66</v>
       </c>
@@ -2156,8 +2540,32 @@
       <c r="AC16" s="3">
         <v>1</v>
       </c>
+      <c r="AD16" s="3">
+        <v>1</v>
+      </c>
+      <c r="AE16" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF16" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG16" s="3">
+        <v>0</v>
+      </c>
+      <c r="AH16" s="3">
+        <v>0</v>
+      </c>
+      <c r="AI16" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ16" s="3">
+        <v>0</v>
+      </c>
+      <c r="AK16" s="3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="17" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>42</v>
       </c>
@@ -2230,23 +2638,47 @@
       <c r="X17">
         <v>0.87656656419957435</v>
       </c>
-      <c r="Y17" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="Z17" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="AA17" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="AB17" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="AC17" s="3" t="s">
-        <v>93</v>
+      <c r="Y17" s="3">
+        <v>0.27860696517412936</v>
+      </c>
+      <c r="Z17" s="3">
+        <v>1</v>
+      </c>
+      <c r="AA17" s="3">
+        <v>0.37583892617449666</v>
+      </c>
+      <c r="AB17" s="3">
+        <v>0.40143369175627241</v>
+      </c>
+      <c r="AC17" s="3">
+        <v>0.33234421364985162</v>
+      </c>
+      <c r="AD17" s="3">
+        <v>0.56565656565656564</v>
+      </c>
+      <c r="AE17" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF17" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG17" s="3">
+        <v>0</v>
+      </c>
+      <c r="AH17" s="3">
+        <v>0</v>
+      </c>
+      <c r="AI17" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ17" s="3">
+        <v>0</v>
+      </c>
+      <c r="AK17" s="3">
+        <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>43</v>
       </c>
@@ -2319,23 +2751,47 @@
       <c r="X18">
         <v>0.86491557223264537</v>
       </c>
-      <c r="Y18" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="Z18" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="AA18" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="AB18" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="AC18" s="3" t="s">
-        <v>93</v>
+      <c r="Y18" s="3">
+        <v>0.54216867469879515</v>
+      </c>
+      <c r="Z18" s="3">
+        <v>1</v>
+      </c>
+      <c r="AA18" s="3">
+        <v>0.29315960912052119</v>
+      </c>
+      <c r="AB18" s="3">
+        <v>0.30716723549488056</v>
+      </c>
+      <c r="AC18" s="3">
+        <v>0.43902439024390244</v>
+      </c>
+      <c r="AD18" s="3">
+        <v>0.36144578313253012</v>
+      </c>
+      <c r="AE18" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF18" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG18" s="3">
+        <v>0</v>
+      </c>
+      <c r="AH18" s="3">
+        <v>0</v>
+      </c>
+      <c r="AI18" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ18" s="3">
+        <v>0</v>
+      </c>
+      <c r="AK18" s="3">
+        <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>44</v>
       </c>
@@ -2408,23 +2864,47 @@
       <c r="X19">
         <v>0.54168452777777776</v>
       </c>
-      <c r="Y19" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="Z19" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="AA19" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="AB19" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="AC19" s="3" t="s">
-        <v>93</v>
+      <c r="Y19" s="3">
+        <v>0.471655328798186</v>
+      </c>
+      <c r="Z19" s="3">
+        <v>1</v>
+      </c>
+      <c r="AA19" s="3">
+        <v>0.53911564625850339</v>
+      </c>
+      <c r="AB19" s="3">
+        <v>0.58106575963718821</v>
+      </c>
+      <c r="AC19" s="3">
+        <v>0.55328798185941042</v>
+      </c>
+      <c r="AD19" s="3">
+        <v>0.83730158730158721</v>
+      </c>
+      <c r="AE19" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF19" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG19" s="3">
+        <v>0</v>
+      </c>
+      <c r="AH19" s="3">
+        <v>0</v>
+      </c>
+      <c r="AI19" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ19" s="3">
+        <v>0</v>
+      </c>
+      <c r="AK19" s="3">
+        <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>45</v>
       </c>
@@ -2512,8 +2992,32 @@
       <c r="AC20" s="3">
         <v>1</v>
       </c>
+      <c r="AD20" s="3">
+        <v>1</v>
+      </c>
+      <c r="AE20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AH20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AI20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AK20" s="3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="21" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>46</v>
       </c>
@@ -2586,23 +3090,47 @@
       <c r="X21">
         <v>0</v>
       </c>
-      <c r="Y21" s="3">
-        <v>1</v>
-      </c>
-      <c r="Z21" s="3">
-        <v>1</v>
-      </c>
-      <c r="AA21" s="3">
-        <v>1</v>
-      </c>
-      <c r="AB21" s="3">
-        <v>1</v>
-      </c>
-      <c r="AC21" s="3">
-        <v>1</v>
+      <c r="Y21" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="Z21" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="AA21" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="AB21" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="AC21" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="AD21" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="AE21" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF21" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG21" s="3">
+        <v>0</v>
+      </c>
+      <c r="AH21" s="3">
+        <v>0</v>
+      </c>
+      <c r="AI21" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ21" s="3">
+        <v>0</v>
+      </c>
+      <c r="AK21" s="3">
+        <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>41</v>
       </c>
@@ -2676,22 +3204,46 @@
         <v>0</v>
       </c>
       <c r="Y22" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z22" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA22" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB22" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC22" s="3">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="AD22" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE22" s="3">
+        <v>1</v>
+      </c>
+      <c r="AF22">
+        <v>0.77439797211660322</v>
+      </c>
+      <c r="AG22">
+        <v>0.56147021546261078</v>
+      </c>
+      <c r="AH22">
+        <v>0.83269961977186313</v>
+      </c>
+      <c r="AI22">
+        <v>0.71482889733840294</v>
+      </c>
+      <c r="AJ22">
+        <v>0.94169835234474009</v>
+      </c>
+      <c r="AK22">
+        <v>0.64892268694550059</v>
       </c>
     </row>
-    <row r="23" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>47</v>
       </c>
@@ -2779,8 +3331,32 @@
       <c r="AC23" s="3">
         <v>0</v>
       </c>
+      <c r="AD23" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE23" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF23" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG23" s="3">
+        <v>0</v>
+      </c>
+      <c r="AH23" s="3">
+        <v>0</v>
+      </c>
+      <c r="AI23" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ23" s="3">
+        <v>0</v>
+      </c>
+      <c r="AK23" s="3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="24" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>48</v>
       </c>
@@ -2868,8 +3444,32 @@
       <c r="AC24" s="3">
         <v>0</v>
       </c>
+      <c r="AD24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AH24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AI24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AK24" s="3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="25" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>49</v>
       </c>
@@ -2957,8 +3557,32 @@
       <c r="AC25" s="3">
         <v>0</v>
       </c>
+      <c r="AD25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AH25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AI25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AK25" s="3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="26" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>50</v>
       </c>
@@ -3031,23 +3655,47 @@
       <c r="X26">
         <v>0.6</v>
       </c>
-      <c r="Y26" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="Z26" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="AA26" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="AB26" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="AC26" s="3" t="s">
-        <v>93</v>
+      <c r="Y26" s="3">
+        <v>0.93243243243243235</v>
+      </c>
+      <c r="Z26" s="3">
+        <v>0.34673366834170855</v>
+      </c>
+      <c r="AA26" s="3">
+        <v>0.9078947368421052</v>
+      </c>
+      <c r="AB26" s="3">
+        <v>0.50364963503649629</v>
+      </c>
+      <c r="AC26" s="3">
+        <v>0.45695364238410596</v>
+      </c>
+      <c r="AD26" s="3">
+        <v>1</v>
+      </c>
+      <c r="AE26" s="3">
+        <v>0.05</v>
+      </c>
+      <c r="AF26">
+        <v>0.6428571428571429</v>
+      </c>
+      <c r="AG26">
+        <v>0.68</v>
+      </c>
+      <c r="AH26">
+        <v>0.44285714285714284</v>
+      </c>
+      <c r="AI26">
+        <v>1</v>
+      </c>
+      <c r="AJ26">
+        <v>0.21428571428571427</v>
+      </c>
+      <c r="AK26">
+        <v>0.41285714285714281</v>
       </c>
     </row>
-    <row r="27" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>51</v>
       </c>
@@ -3107,7 +3755,7 @@
         <v>0.59464796000000009</v>
       </c>
       <c r="P27">
-        <f t="shared" ref="D27:X27" si="2">P26*P28</f>
+        <f t="shared" ref="P27:AC27" si="2">P26*P28</f>
         <v>0.41822087500000005</v>
       </c>
       <c r="Q27">
@@ -3142,23 +3790,60 @@
         <f t="shared" si="2"/>
         <v>0.32501071666666664</v>
       </c>
-      <c r="Y27" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="Z27" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="AA27" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="AB27" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="AC27" s="3" t="s">
-        <v>93</v>
+      <c r="Y27">
+        <f t="shared" si="2"/>
+        <v>0.43978672550101122</v>
+      </c>
+      <c r="Z27">
+        <f t="shared" si="2"/>
+        <v>0.34673366834170855</v>
+      </c>
+      <c r="AA27">
+        <f t="shared" si="2"/>
+        <v>0.48946025778732544</v>
+      </c>
+      <c r="AB27">
+        <f t="shared" si="2"/>
+        <v>0.29265355777347429</v>
+      </c>
+      <c r="AC27">
+        <f t="shared" si="2"/>
+        <v>0.25282695859800874</v>
+      </c>
+      <c r="AD27">
+        <f t="shared" ref="AD27:AK27" si="3">AD26*AD28</f>
+        <v>0.83730158730158721</v>
+      </c>
+      <c r="AE27">
+        <f t="shared" si="3"/>
+        <v>0.05</v>
+      </c>
+      <c r="AF27">
+        <f t="shared" si="3"/>
+        <v>0.49782726778924496</v>
+      </c>
+      <c r="AG27">
+        <f t="shared" si="3"/>
+        <v>0.38179974651457538</v>
+      </c>
+      <c r="AH27">
+        <f t="shared" si="3"/>
+        <v>0.36876697447039652</v>
+      </c>
+      <c r="AI27">
+        <f t="shared" si="3"/>
+        <v>0.71482889733840294</v>
+      </c>
+      <c r="AJ27">
+        <f t="shared" si="3"/>
+        <v>0.20179250407387286</v>
+      </c>
+      <c r="AK27">
+        <f t="shared" si="3"/>
+        <v>0.2679123664674995</v>
       </c>
     </row>
-    <row r="28" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>52</v>
       </c>
@@ -3231,23 +3916,54 @@
       <c r="X28">
         <v>0.54168452777777776</v>
       </c>
-      <c r="Y28" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="Z28" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="AA28" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="AB28" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="AC28" s="3" t="s">
-        <v>93</v>
+      <c r="Y28" s="3">
+        <v>0.471655328798186</v>
+      </c>
+      <c r="Z28" s="3">
+        <v>1</v>
+      </c>
+      <c r="AA28" s="3">
+        <v>0.53911564625850339</v>
+      </c>
+      <c r="AB28" s="3">
+        <v>0.58106575963718821</v>
+      </c>
+      <c r="AC28" s="3">
+        <v>0.55328798185941042</v>
+      </c>
+      <c r="AD28" s="3">
+        <v>0.83730158730158721</v>
+      </c>
+      <c r="AE28">
+        <f>AE22</f>
+        <v>1</v>
+      </c>
+      <c r="AF28">
+        <f t="shared" ref="AF28:AK28" si="4">AF22</f>
+        <v>0.77439797211660322</v>
+      </c>
+      <c r="AG28">
+        <f t="shared" si="4"/>
+        <v>0.56147021546261078</v>
+      </c>
+      <c r="AH28">
+        <f t="shared" si="4"/>
+        <v>0.83269961977186313</v>
+      </c>
+      <c r="AI28">
+        <f t="shared" si="4"/>
+        <v>0.71482889733840294</v>
+      </c>
+      <c r="AJ28">
+        <f t="shared" si="4"/>
+        <v>0.94169835234474009</v>
+      </c>
+      <c r="AK28">
+        <f t="shared" si="4"/>
+        <v>0.64892268694550059</v>
       </c>
     </row>
-    <row r="29" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>59</v>
       </c>
@@ -3335,8 +4051,32 @@
       <c r="AC29" s="3">
         <v>1</v>
       </c>
+      <c r="AD29" s="3">
+        <v>1</v>
+      </c>
+      <c r="AE29" s="3">
+        <v>1</v>
+      </c>
+      <c r="AF29" s="3">
+        <v>1</v>
+      </c>
+      <c r="AG29" s="3">
+        <v>1</v>
+      </c>
+      <c r="AH29" s="3">
+        <v>1</v>
+      </c>
+      <c r="AI29" s="3">
+        <v>1</v>
+      </c>
+      <c r="AJ29" s="3">
+        <v>1</v>
+      </c>
+      <c r="AK29" s="3">
+        <v>1</v>
+      </c>
     </row>
-    <row r="30" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>53</v>
       </c>
@@ -3424,8 +4164,32 @@
       <c r="AC30" s="3">
         <v>1</v>
       </c>
+      <c r="AD30" s="3">
+        <v>1</v>
+      </c>
+      <c r="AE30" s="3">
+        <v>1</v>
+      </c>
+      <c r="AF30" s="3">
+        <v>1</v>
+      </c>
+      <c r="AG30" s="3">
+        <v>1</v>
+      </c>
+      <c r="AH30" s="3">
+        <v>1</v>
+      </c>
+      <c r="AI30" s="3">
+        <v>1</v>
+      </c>
+      <c r="AJ30" s="3">
+        <v>1</v>
+      </c>
+      <c r="AK30" s="3">
+        <v>1</v>
+      </c>
     </row>
-    <row r="31" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>54</v>
       </c>
@@ -3513,8 +4277,32 @@
       <c r="AC31" s="3">
         <v>1</v>
       </c>
+      <c r="AD31" s="3">
+        <v>1</v>
+      </c>
+      <c r="AE31" s="3">
+        <v>1</v>
+      </c>
+      <c r="AF31" s="3">
+        <v>1</v>
+      </c>
+      <c r="AG31" s="3">
+        <v>1</v>
+      </c>
+      <c r="AH31" s="3">
+        <v>1</v>
+      </c>
+      <c r="AI31" s="3">
+        <v>1</v>
+      </c>
+      <c r="AJ31" s="3">
+        <v>1</v>
+      </c>
+      <c r="AK31" s="3">
+        <v>1</v>
+      </c>
     </row>
-    <row r="32" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>55</v>
       </c>
@@ -3602,8 +4390,32 @@
       <c r="AC32" s="3">
         <v>1</v>
       </c>
+      <c r="AD32" s="3">
+        <v>1</v>
+      </c>
+      <c r="AE32" s="3">
+        <v>1</v>
+      </c>
+      <c r="AF32" s="3">
+        <v>1</v>
+      </c>
+      <c r="AG32" s="3">
+        <v>1</v>
+      </c>
+      <c r="AH32" s="3">
+        <v>1</v>
+      </c>
+      <c r="AI32" s="3">
+        <v>1</v>
+      </c>
+      <c r="AJ32" s="3">
+        <v>1</v>
+      </c>
+      <c r="AK32" s="3">
+        <v>1</v>
+      </c>
     </row>
-    <row r="33" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>56</v>
       </c>
@@ -3691,8 +4503,32 @@
       <c r="AC33" s="3">
         <v>1</v>
       </c>
+      <c r="AD33" s="3">
+        <v>1</v>
+      </c>
+      <c r="AE33" s="3">
+        <v>1</v>
+      </c>
+      <c r="AF33" s="3">
+        <v>1</v>
+      </c>
+      <c r="AG33" s="3">
+        <v>1</v>
+      </c>
+      <c r="AH33" s="3">
+        <v>1</v>
+      </c>
+      <c r="AI33" s="3">
+        <v>1</v>
+      </c>
+      <c r="AJ33" s="3">
+        <v>1</v>
+      </c>
+      <c r="AK33" s="3">
+        <v>1</v>
+      </c>
     </row>
-    <row r="34" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>57</v>
       </c>
@@ -3780,8 +4616,32 @@
       <c r="AC34" s="3">
         <v>1</v>
       </c>
+      <c r="AD34" s="3">
+        <v>1</v>
+      </c>
+      <c r="AE34" s="3">
+        <v>1</v>
+      </c>
+      <c r="AF34" s="3">
+        <v>1</v>
+      </c>
+      <c r="AG34" s="3">
+        <v>1</v>
+      </c>
+      <c r="AH34" s="3">
+        <v>1</v>
+      </c>
+      <c r="AI34" s="3">
+        <v>1</v>
+      </c>
+      <c r="AJ34" s="3">
+        <v>1</v>
+      </c>
+      <c r="AK34" s="3">
+        <v>1</v>
+      </c>
     </row>
-    <row r="35" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>58</v>
       </c>
@@ -3869,8 +4729,32 @@
       <c r="AC35" s="3">
         <v>1</v>
       </c>
+      <c r="AD35" s="3">
+        <v>1</v>
+      </c>
+      <c r="AE35" s="3">
+        <v>1</v>
+      </c>
+      <c r="AF35" s="3">
+        <v>1</v>
+      </c>
+      <c r="AG35" s="3">
+        <v>1</v>
+      </c>
+      <c r="AH35" s="3">
+        <v>1</v>
+      </c>
+      <c r="AI35" s="3">
+        <v>1</v>
+      </c>
+      <c r="AJ35" s="3">
+        <v>1</v>
+      </c>
+      <c r="AK35" s="3">
+        <v>1</v>
+      </c>
     </row>
-    <row r="36" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>60</v>
       </c>
@@ -3958,8 +4842,32 @@
       <c r="AC36" s="3">
         <v>1</v>
       </c>
+      <c r="AD36" s="3">
+        <v>1</v>
+      </c>
+      <c r="AE36" s="3">
+        <v>1</v>
+      </c>
+      <c r="AF36" s="3">
+        <v>1</v>
+      </c>
+      <c r="AG36" s="3">
+        <v>1</v>
+      </c>
+      <c r="AH36" s="3">
+        <v>1</v>
+      </c>
+      <c r="AI36" s="3">
+        <v>1</v>
+      </c>
+      <c r="AJ36" s="3">
+        <v>1</v>
+      </c>
+      <c r="AK36" s="3">
+        <v>1</v>
+      </c>
     </row>
-    <row r="37" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>61</v>
       </c>
@@ -4047,8 +4955,32 @@
       <c r="AC37" s="3">
         <v>1</v>
       </c>
+      <c r="AD37" s="3">
+        <v>1</v>
+      </c>
+      <c r="AE37" s="3">
+        <v>1</v>
+      </c>
+      <c r="AF37" s="3">
+        <v>1</v>
+      </c>
+      <c r="AG37" s="3">
+        <v>1</v>
+      </c>
+      <c r="AH37" s="3">
+        <v>1</v>
+      </c>
+      <c r="AI37" s="3">
+        <v>1</v>
+      </c>
+      <c r="AJ37" s="3">
+        <v>1</v>
+      </c>
+      <c r="AK37" s="3">
+        <v>1</v>
+      </c>
     </row>
-    <row r="38" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>62</v>
       </c>
@@ -4136,8 +5068,32 @@
       <c r="AC38" s="3">
         <v>1</v>
       </c>
+      <c r="AD38" s="3">
+        <v>1</v>
+      </c>
+      <c r="AE38" s="3">
+        <v>1</v>
+      </c>
+      <c r="AF38" s="3">
+        <v>1</v>
+      </c>
+      <c r="AG38" s="3">
+        <v>1</v>
+      </c>
+      <c r="AH38" s="3">
+        <v>1</v>
+      </c>
+      <c r="AI38" s="3">
+        <v>1</v>
+      </c>
+      <c r="AJ38" s="3">
+        <v>1</v>
+      </c>
+      <c r="AK38" s="3">
+        <v>1</v>
+      </c>
     </row>
-    <row r="39" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>63</v>
       </c>
@@ -4225,8 +5181,32 @@
       <c r="AC39" s="3">
         <v>1</v>
       </c>
+      <c r="AD39" s="3">
+        <v>1</v>
+      </c>
+      <c r="AE39" s="3">
+        <v>1</v>
+      </c>
+      <c r="AF39" s="3">
+        <v>1</v>
+      </c>
+      <c r="AG39" s="3">
+        <v>1</v>
+      </c>
+      <c r="AH39" s="3">
+        <v>1</v>
+      </c>
+      <c r="AI39" s="3">
+        <v>1</v>
+      </c>
+      <c r="AJ39" s="3">
+        <v>1</v>
+      </c>
+      <c r="AK39" s="3">
+        <v>1</v>
+      </c>
     </row>
-    <row r="40" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>64</v>
       </c>
@@ -4314,8 +5294,32 @@
       <c r="AC40" s="3">
         <v>1</v>
       </c>
+      <c r="AD40" s="3">
+        <v>1</v>
+      </c>
+      <c r="AE40" s="3">
+        <v>1</v>
+      </c>
+      <c r="AF40" s="3">
+        <v>1</v>
+      </c>
+      <c r="AG40" s="3">
+        <v>1</v>
+      </c>
+      <c r="AH40" s="3">
+        <v>1</v>
+      </c>
+      <c r="AI40" s="3">
+        <v>1</v>
+      </c>
+      <c r="AJ40" s="3">
+        <v>1</v>
+      </c>
+      <c r="AK40" s="3">
+        <v>1</v>
+      </c>
     </row>
-    <row r="41" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>65</v>
       </c>
@@ -4401,6 +5405,30 @@
         <v>1</v>
       </c>
       <c r="AC41" s="3">
+        <v>1</v>
+      </c>
+      <c r="AD41" s="3">
+        <v>1</v>
+      </c>
+      <c r="AE41" s="3">
+        <v>1</v>
+      </c>
+      <c r="AF41" s="3">
+        <v>1</v>
+      </c>
+      <c r="AG41" s="3">
+        <v>1</v>
+      </c>
+      <c r="AH41" s="3">
+        <v>1</v>
+      </c>
+      <c r="AI41" s="3">
+        <v>1</v>
+      </c>
+      <c r="AJ41" s="3">
+        <v>1</v>
+      </c>
+      <c r="AK41" s="3">
         <v>1</v>
       </c>
     </row>

--- a/ai_sustainability/datas/Weight_matrix.xlsx
+++ b/ai_sustainability/datas/Weight_matrix.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hennecarta\Documents\Graph_decision_AI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97F2D588-77F5-4EF0-9568-D763D65E7E46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A2B829B-9FC9-4283-AD6A-348A10AFBE7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-60" yWindow="-16320" windowWidth="29040" windowHeight="16440" xr2:uid="{AC26B5E7-4148-4700-AAF1-8A62823EFFAF}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="124">
   <si>
     <t>id_edges</t>
   </si>
@@ -363,13 +363,58 @@
   </si>
   <si>
     <t>Regnety080</t>
+  </si>
+  <si>
+    <t>RandomForest</t>
+  </si>
+  <si>
+    <t>Adaboost (after vectorisation)</t>
+  </si>
+  <si>
+    <t>DecisionTree (after vectorisation)</t>
+  </si>
+  <si>
+    <t>KNN (after vectorisation)</t>
+  </si>
+  <si>
+    <t>LinearSVC (after vectorisation)</t>
+  </si>
+  <si>
+    <t>MLP (after vectorisation)</t>
+  </si>
+  <si>
+    <t>SVC-rbf (after vectorisation)</t>
+  </si>
+  <si>
+    <t>TextBlob (python library)</t>
+  </si>
+  <si>
+    <t>SpaCy (python library)</t>
+  </si>
+  <si>
+    <t>NLTK (python library)</t>
+  </si>
+  <si>
+    <t>Genism (python library)</t>
+  </si>
+  <si>
+    <t>PyNLPl (pineapple) (python library)</t>
+  </si>
+  <si>
+    <t>LSTM-RNN</t>
+  </si>
+  <si>
+    <t>RNN-RNN</t>
+  </si>
+  <si>
+    <t>BP-RNN</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -383,13 +428,73 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -401,10 +506,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -417,8 +524,32 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Bad" xfId="2" builtinId="27"/>
+    <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -731,10 +862,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65B3A90E-CD1F-4942-85BC-B8033B44D3A6}">
-  <dimension ref="A1:AK41"/>
+  <dimension ref="A1:BE41"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N28" sqref="N28"/>
+      <selection activeCell="M19" sqref="M19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -744,120 +875,180 @@
     <col min="25" max="30" width="8.88671875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="C1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N1" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="O1" t="s">
+      <c r="O1" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="P1" t="s">
+      <c r="P1" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="Q1" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="R1" t="s">
+      <c r="R1" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="S1" t="s">
+      <c r="S1" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="T1" t="s">
+      <c r="T1" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="U1" t="s">
+      <c r="U1" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="V1" t="s">
+      <c r="V1" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="W1" t="s">
+      <c r="W1" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="X1" t="s">
+      <c r="X1" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="Y1" s="2" t="s">
+      <c r="Y1" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="Z1" s="2" t="s">
+      <c r="Z1" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="AA1" s="2" t="s">
+      <c r="AA1" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="AB1" s="2" t="s">
+      <c r="AB1" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AC1" s="12" t="s">
         <v>108</v>
       </c>
-      <c r="AD1" s="2" t="s">
+      <c r="AD1" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="AE1" s="2" t="s">
+      <c r="AE1" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="AF1" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="AG1" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="AH1" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="AI1" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="AJ1" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="AF1" s="2" t="s">
+      <c r="AK1" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="AG1" s="2" t="s">
+      <c r="AL1" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="AH1" s="2" t="s">
+      <c r="AM1" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="AI1" s="2" t="s">
+      <c r="AN1" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="AJ1" s="2" t="s">
+      <c r="AO1" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="AK1" s="2" t="s">
+      <c r="AP1" s="8" t="s">
         <v>106</v>
       </c>
+      <c r="AQ1" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="AR1" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="AS1" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="AT1" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="AU1" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="AV1" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="AW1" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="AX1" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="AY1" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="AZ1" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="BA1" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="BB1" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="BC1" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="BD1" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="BE1" s="15" t="s">
+        <v>123</v>
+      </c>
     </row>
-    <row r="2" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>21</v>
       </c>
@@ -969,8 +1160,68 @@
       <c r="AK2" s="3">
         <v>1</v>
       </c>
+      <c r="AL2" s="3">
+        <v>1</v>
+      </c>
+      <c r="AM2" s="3">
+        <v>1</v>
+      </c>
+      <c r="AN2" s="3">
+        <v>1</v>
+      </c>
+      <c r="AO2" s="3">
+        <v>1</v>
+      </c>
+      <c r="AP2" s="3">
+        <v>1</v>
+      </c>
+      <c r="AQ2" s="3">
+        <v>1</v>
+      </c>
+      <c r="AR2" s="3">
+        <v>1</v>
+      </c>
+      <c r="AS2" s="3">
+        <v>1</v>
+      </c>
+      <c r="AT2" s="3">
+        <v>1</v>
+      </c>
+      <c r="AU2" s="3">
+        <v>1</v>
+      </c>
+      <c r="AV2" s="3">
+        <v>1</v>
+      </c>
+      <c r="AW2" s="3">
+        <v>1</v>
+      </c>
+      <c r="AX2" s="3">
+        <v>1</v>
+      </c>
+      <c r="AY2" s="3">
+        <v>1</v>
+      </c>
+      <c r="AZ2" s="3">
+        <v>1</v>
+      </c>
+      <c r="BA2" s="3">
+        <v>1</v>
+      </c>
+      <c r="BB2" s="3">
+        <v>1</v>
+      </c>
+      <c r="BC2" s="3">
+        <v>1</v>
+      </c>
+      <c r="BD2" s="3">
+        <v>1</v>
+      </c>
+      <c r="BE2" s="3">
+        <v>1</v>
+      </c>
     </row>
-    <row r="3" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>22</v>
       </c>
@@ -1082,8 +1333,68 @@
       <c r="AK3" s="3">
         <v>1</v>
       </c>
+      <c r="AL3" s="3">
+        <v>1</v>
+      </c>
+      <c r="AM3" s="3">
+        <v>1</v>
+      </c>
+      <c r="AN3" s="3">
+        <v>1</v>
+      </c>
+      <c r="AO3" s="3">
+        <v>1</v>
+      </c>
+      <c r="AP3" s="3">
+        <v>1</v>
+      </c>
+      <c r="AQ3" s="3">
+        <v>1</v>
+      </c>
+      <c r="AR3" s="3">
+        <v>1</v>
+      </c>
+      <c r="AS3" s="3">
+        <v>1</v>
+      </c>
+      <c r="AT3" s="3">
+        <v>1</v>
+      </c>
+      <c r="AU3" s="3">
+        <v>1</v>
+      </c>
+      <c r="AV3" s="3">
+        <v>1</v>
+      </c>
+      <c r="AW3" s="3">
+        <v>1</v>
+      </c>
+      <c r="AX3" s="3">
+        <v>1</v>
+      </c>
+      <c r="AY3" s="3">
+        <v>1</v>
+      </c>
+      <c r="AZ3" s="3">
+        <v>1</v>
+      </c>
+      <c r="BA3" s="3">
+        <v>1</v>
+      </c>
+      <c r="BB3" s="3">
+        <v>1</v>
+      </c>
+      <c r="BC3" s="3">
+        <v>1</v>
+      </c>
+      <c r="BD3" s="3">
+        <v>1</v>
+      </c>
+      <c r="BE3" s="3">
+        <v>1</v>
+      </c>
     </row>
-    <row r="4" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>23</v>
       </c>
@@ -1195,8 +1506,68 @@
       <c r="AK4" s="3">
         <v>0</v>
       </c>
+      <c r="AL4" s="3">
+        <v>0</v>
+      </c>
+      <c r="AM4" s="3">
+        <v>0</v>
+      </c>
+      <c r="AN4" s="3">
+        <v>0</v>
+      </c>
+      <c r="AO4" s="3">
+        <v>0</v>
+      </c>
+      <c r="AP4" s="3">
+        <v>0</v>
+      </c>
+      <c r="AQ4" s="3">
+        <v>0</v>
+      </c>
+      <c r="AR4" s="3">
+        <v>0</v>
+      </c>
+      <c r="AS4" s="3">
+        <v>0</v>
+      </c>
+      <c r="AT4" s="3">
+        <v>1</v>
+      </c>
+      <c r="AU4" s="3">
+        <v>0</v>
+      </c>
+      <c r="AV4" s="3">
+        <v>0</v>
+      </c>
+      <c r="AW4" s="3">
+        <v>0</v>
+      </c>
+      <c r="AX4" s="3">
+        <v>0</v>
+      </c>
+      <c r="AY4" s="3">
+        <v>0</v>
+      </c>
+      <c r="AZ4" s="3">
+        <v>0</v>
+      </c>
+      <c r="BA4" s="3">
+        <v>0</v>
+      </c>
+      <c r="BB4" s="3">
+        <v>0</v>
+      </c>
+      <c r="BC4" s="3">
+        <v>0</v>
+      </c>
+      <c r="BD4" s="3">
+        <v>0</v>
+      </c>
+      <c r="BE4" s="3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="5" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>24</v>
       </c>
@@ -1308,8 +1679,68 @@
       <c r="AK5" s="3">
         <v>0</v>
       </c>
+      <c r="AL5" s="3">
+        <v>0</v>
+      </c>
+      <c r="AM5" s="3">
+        <v>0</v>
+      </c>
+      <c r="AN5" s="3">
+        <v>0</v>
+      </c>
+      <c r="AO5" s="3">
+        <v>0</v>
+      </c>
+      <c r="AP5" s="3">
+        <v>0</v>
+      </c>
+      <c r="AQ5" s="3">
+        <v>0</v>
+      </c>
+      <c r="AR5" s="3">
+        <v>0</v>
+      </c>
+      <c r="AS5" s="3">
+        <v>0</v>
+      </c>
+      <c r="AT5" s="3">
+        <v>0</v>
+      </c>
+      <c r="AU5" s="3">
+        <v>0</v>
+      </c>
+      <c r="AV5" s="3">
+        <v>0</v>
+      </c>
+      <c r="AW5" s="3">
+        <v>0</v>
+      </c>
+      <c r="AX5" s="3">
+        <v>0</v>
+      </c>
+      <c r="AY5" s="3">
+        <v>0</v>
+      </c>
+      <c r="AZ5" s="3">
+        <v>0</v>
+      </c>
+      <c r="BA5" s="3">
+        <v>0</v>
+      </c>
+      <c r="BB5" s="3">
+        <v>0</v>
+      </c>
+      <c r="BC5" s="3">
+        <v>0</v>
+      </c>
+      <c r="BD5" s="3">
+        <v>0</v>
+      </c>
+      <c r="BE5" s="3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="6" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>25</v>
       </c>
@@ -1421,8 +1852,68 @@
       <c r="AK6" s="3">
         <v>0</v>
       </c>
+      <c r="AL6" s="3">
+        <v>0</v>
+      </c>
+      <c r="AM6" s="3">
+        <v>0</v>
+      </c>
+      <c r="AN6" s="3">
+        <v>0</v>
+      </c>
+      <c r="AO6" s="3">
+        <v>0</v>
+      </c>
+      <c r="AP6" s="3">
+        <v>0</v>
+      </c>
+      <c r="AQ6" s="3">
+        <v>1</v>
+      </c>
+      <c r="AR6" s="3">
+        <v>1</v>
+      </c>
+      <c r="AS6" s="3">
+        <v>1</v>
+      </c>
+      <c r="AT6" s="3">
+        <v>1</v>
+      </c>
+      <c r="AU6" s="3">
+        <v>1</v>
+      </c>
+      <c r="AV6" s="3">
+        <v>1</v>
+      </c>
+      <c r="AW6" s="3">
+        <v>1</v>
+      </c>
+      <c r="AX6" s="3">
+        <v>1</v>
+      </c>
+      <c r="AY6" s="3">
+        <v>1</v>
+      </c>
+      <c r="AZ6" s="3">
+        <v>1</v>
+      </c>
+      <c r="BA6" s="3">
+        <v>1</v>
+      </c>
+      <c r="BB6" s="3">
+        <v>1</v>
+      </c>
+      <c r="BC6" s="3">
+        <v>1</v>
+      </c>
+      <c r="BD6" s="3">
+        <v>1</v>
+      </c>
+      <c r="BE6" s="3">
+        <v>1</v>
+      </c>
     </row>
-    <row r="7" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>26</v>
       </c>
@@ -1534,8 +2025,68 @@
       <c r="AK7" s="3">
         <v>1</v>
       </c>
+      <c r="AL7" s="3">
+        <v>1</v>
+      </c>
+      <c r="AM7" s="3">
+        <v>1</v>
+      </c>
+      <c r="AN7" s="3">
+        <v>1</v>
+      </c>
+      <c r="AO7" s="3">
+        <v>1</v>
+      </c>
+      <c r="AP7" s="3">
+        <v>1</v>
+      </c>
+      <c r="AQ7" s="3">
+        <v>0</v>
+      </c>
+      <c r="AR7" s="3">
+        <v>0</v>
+      </c>
+      <c r="AS7" s="3">
+        <v>0</v>
+      </c>
+      <c r="AT7" s="3">
+        <v>0</v>
+      </c>
+      <c r="AU7" s="3">
+        <v>0</v>
+      </c>
+      <c r="AV7" s="3">
+        <v>0</v>
+      </c>
+      <c r="AW7" s="3">
+        <v>0</v>
+      </c>
+      <c r="AX7" s="3">
+        <v>0</v>
+      </c>
+      <c r="AY7" s="3">
+        <v>0</v>
+      </c>
+      <c r="AZ7" s="3">
+        <v>0</v>
+      </c>
+      <c r="BA7" s="3">
+        <v>0</v>
+      </c>
+      <c r="BB7" s="3">
+        <v>0</v>
+      </c>
+      <c r="BC7" s="3">
+        <v>0</v>
+      </c>
+      <c r="BD7" s="3">
+        <v>0</v>
+      </c>
+      <c r="BE7" s="3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="8" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>29</v>
       </c>
@@ -1647,8 +2198,68 @@
       <c r="AK8" s="3">
         <v>0</v>
       </c>
+      <c r="AL8" s="3">
+        <v>0</v>
+      </c>
+      <c r="AM8" s="3">
+        <v>0</v>
+      </c>
+      <c r="AN8" s="3">
+        <v>0</v>
+      </c>
+      <c r="AO8" s="3">
+        <v>0</v>
+      </c>
+      <c r="AP8" s="3">
+        <v>0</v>
+      </c>
+      <c r="AQ8" s="3">
+        <v>0</v>
+      </c>
+      <c r="AR8" s="3">
+        <v>0</v>
+      </c>
+      <c r="AS8" s="3">
+        <v>0</v>
+      </c>
+      <c r="AT8" s="3">
+        <v>0</v>
+      </c>
+      <c r="AU8" s="3">
+        <v>0</v>
+      </c>
+      <c r="AV8" s="3">
+        <v>0</v>
+      </c>
+      <c r="AW8" s="3">
+        <v>0</v>
+      </c>
+      <c r="AX8" s="3">
+        <v>0</v>
+      </c>
+      <c r="AY8" s="3">
+        <v>0</v>
+      </c>
+      <c r="AZ8" s="3">
+        <v>0</v>
+      </c>
+      <c r="BA8" s="3">
+        <v>0</v>
+      </c>
+      <c r="BB8" s="3">
+        <v>0</v>
+      </c>
+      <c r="BC8" s="3">
+        <v>0</v>
+      </c>
+      <c r="BD8" s="3">
+        <v>0</v>
+      </c>
+      <c r="BE8" s="3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="9" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>28</v>
       </c>
@@ -1760,8 +2371,68 @@
       <c r="AK9" s="3">
         <v>0</v>
       </c>
+      <c r="AL9" s="3">
+        <v>0</v>
+      </c>
+      <c r="AM9" s="3">
+        <v>0</v>
+      </c>
+      <c r="AN9" s="3">
+        <v>0</v>
+      </c>
+      <c r="AO9" s="3">
+        <v>0</v>
+      </c>
+      <c r="AP9" s="3">
+        <v>0</v>
+      </c>
+      <c r="AQ9" s="3">
+        <v>0</v>
+      </c>
+      <c r="AR9" s="3">
+        <v>0</v>
+      </c>
+      <c r="AS9" s="3">
+        <v>0</v>
+      </c>
+      <c r="AT9" s="3">
+        <v>0</v>
+      </c>
+      <c r="AU9" s="3">
+        <v>0</v>
+      </c>
+      <c r="AV9" s="3">
+        <v>0</v>
+      </c>
+      <c r="AW9" s="3">
+        <v>0</v>
+      </c>
+      <c r="AX9" s="3">
+        <v>0</v>
+      </c>
+      <c r="AY9" s="3">
+        <v>0</v>
+      </c>
+      <c r="AZ9" s="3">
+        <v>0</v>
+      </c>
+      <c r="BA9" s="3">
+        <v>0</v>
+      </c>
+      <c r="BB9" s="3">
+        <v>0</v>
+      </c>
+      <c r="BC9" s="3">
+        <v>0</v>
+      </c>
+      <c r="BD9" s="3">
+        <v>0</v>
+      </c>
+      <c r="BE9" s="3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="10" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>30</v>
       </c>
@@ -1873,8 +2544,68 @@
       <c r="AK10" s="3">
         <v>0</v>
       </c>
+      <c r="AL10" s="3">
+        <v>0</v>
+      </c>
+      <c r="AM10" s="3">
+        <v>0</v>
+      </c>
+      <c r="AN10" s="3">
+        <v>0</v>
+      </c>
+      <c r="AO10" s="3">
+        <v>0</v>
+      </c>
+      <c r="AP10" s="3">
+        <v>0</v>
+      </c>
+      <c r="AQ10" s="3">
+        <v>0</v>
+      </c>
+      <c r="AR10" s="3">
+        <v>0</v>
+      </c>
+      <c r="AS10" s="3">
+        <v>0</v>
+      </c>
+      <c r="AT10" s="3">
+        <v>0</v>
+      </c>
+      <c r="AU10" s="3">
+        <v>0</v>
+      </c>
+      <c r="AV10" s="3">
+        <v>0</v>
+      </c>
+      <c r="AW10" s="3">
+        <v>0</v>
+      </c>
+      <c r="AX10" s="3">
+        <v>0</v>
+      </c>
+      <c r="AY10" s="3">
+        <v>0</v>
+      </c>
+      <c r="AZ10" s="3">
+        <v>0</v>
+      </c>
+      <c r="BA10" s="3">
+        <v>0</v>
+      </c>
+      <c r="BB10" s="3">
+        <v>0</v>
+      </c>
+      <c r="BC10" s="3">
+        <v>0</v>
+      </c>
+      <c r="BD10" s="3">
+        <v>0</v>
+      </c>
+      <c r="BE10" s="3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="11" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>27</v>
       </c>
@@ -1986,8 +2717,68 @@
       <c r="AK11" s="3">
         <v>0</v>
       </c>
+      <c r="AL11" s="3">
+        <v>0</v>
+      </c>
+      <c r="AM11" s="3">
+        <v>0</v>
+      </c>
+      <c r="AN11" s="3">
+        <v>0</v>
+      </c>
+      <c r="AO11" s="3">
+        <v>0</v>
+      </c>
+      <c r="AP11" s="3">
+        <v>0</v>
+      </c>
+      <c r="AQ11" s="3">
+        <v>0</v>
+      </c>
+      <c r="AR11" s="3">
+        <v>0</v>
+      </c>
+      <c r="AS11" s="3">
+        <v>0</v>
+      </c>
+      <c r="AT11" s="3">
+        <v>0</v>
+      </c>
+      <c r="AU11" s="3">
+        <v>0</v>
+      </c>
+      <c r="AV11" s="3">
+        <v>0</v>
+      </c>
+      <c r="AW11" s="3">
+        <v>0</v>
+      </c>
+      <c r="AX11" s="3">
+        <v>0</v>
+      </c>
+      <c r="AY11" s="3">
+        <v>0</v>
+      </c>
+      <c r="AZ11" s="3">
+        <v>0</v>
+      </c>
+      <c r="BA11" s="3">
+        <v>0</v>
+      </c>
+      <c r="BB11" s="3">
+        <v>0</v>
+      </c>
+      <c r="BC11" s="3">
+        <v>0</v>
+      </c>
+      <c r="BD11" s="3">
+        <v>0</v>
+      </c>
+      <c r="BE11" s="3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="12" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>37</v>
       </c>
@@ -2099,8 +2890,68 @@
       <c r="AK12" s="3">
         <v>0</v>
       </c>
+      <c r="AL12" s="3">
+        <v>0</v>
+      </c>
+      <c r="AM12" s="3">
+        <v>0</v>
+      </c>
+      <c r="AN12" s="3">
+        <v>0</v>
+      </c>
+      <c r="AO12" s="3">
+        <v>0</v>
+      </c>
+      <c r="AP12" s="3">
+        <v>0</v>
+      </c>
+      <c r="AQ12" s="3">
+        <v>0</v>
+      </c>
+      <c r="AR12" s="3">
+        <v>0</v>
+      </c>
+      <c r="AS12" s="3">
+        <v>0</v>
+      </c>
+      <c r="AT12" s="3">
+        <v>0</v>
+      </c>
+      <c r="AU12" s="3">
+        <v>0</v>
+      </c>
+      <c r="AV12" s="3">
+        <v>0</v>
+      </c>
+      <c r="AW12" s="3">
+        <v>0</v>
+      </c>
+      <c r="AX12" s="3">
+        <v>0</v>
+      </c>
+      <c r="AY12" s="3">
+        <v>0</v>
+      </c>
+      <c r="AZ12" s="3">
+        <v>0</v>
+      </c>
+      <c r="BA12" s="3">
+        <v>0</v>
+      </c>
+      <c r="BB12" s="3">
+        <v>0</v>
+      </c>
+      <c r="BC12" s="3">
+        <v>0</v>
+      </c>
+      <c r="BD12" s="3">
+        <v>0</v>
+      </c>
+      <c r="BE12" s="3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="13" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>38</v>
       </c>
@@ -2225,8 +3076,68 @@
       <c r="AK13" s="3">
         <v>0</v>
       </c>
+      <c r="AL13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AM13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AN13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AO13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AP13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AQ13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AR13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AS13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AT13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AU13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AV13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AW13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AX13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AY13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AZ13" s="3">
+        <v>0</v>
+      </c>
+      <c r="BA13" s="3">
+        <v>0</v>
+      </c>
+      <c r="BB13" s="3">
+        <v>0</v>
+      </c>
+      <c r="BC13" s="3">
+        <v>0</v>
+      </c>
+      <c r="BD13" s="3">
+        <v>0</v>
+      </c>
+      <c r="BE13" s="3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="14" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>40</v>
       </c>
@@ -2318,19 +3229,19 @@
         <v>1</v>
       </c>
       <c r="AE14" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF14" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG14" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH14" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI14" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ14" s="3">
         <v>0</v>
@@ -2338,8 +3249,68 @@
       <c r="AK14" s="3">
         <v>0</v>
       </c>
+      <c r="AL14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AM14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AN14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AO14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AP14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AQ14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AR14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AS14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AT14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AU14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AV14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AW14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AX14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AY14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AZ14" s="3">
+        <v>0</v>
+      </c>
+      <c r="BA14" s="3">
+        <v>0</v>
+      </c>
+      <c r="BB14" s="3">
+        <v>0</v>
+      </c>
+      <c r="BC14" s="3">
+        <v>0</v>
+      </c>
+      <c r="BD14" s="3">
+        <v>0</v>
+      </c>
+      <c r="BE14" s="3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="15" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>39</v>
       </c>
@@ -2412,38 +3383,38 @@
       <c r="X15">
         <v>1</v>
       </c>
-      <c r="Y15" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="Z15" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="AA15" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="AB15" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="AC15" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="AD15" s="3" t="s">
-        <v>93</v>
+      <c r="Y15" s="3">
+        <v>1</v>
+      </c>
+      <c r="Z15" s="3">
+        <v>1</v>
+      </c>
+      <c r="AA15" s="3">
+        <v>1</v>
+      </c>
+      <c r="AB15" s="3">
+        <v>1</v>
+      </c>
+      <c r="AC15" s="3">
+        <v>1</v>
+      </c>
+      <c r="AD15" s="3">
+        <v>1</v>
       </c>
       <c r="AE15" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF15" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG15" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH15" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI15" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ15" s="3">
         <v>0</v>
@@ -2451,8 +3422,68 @@
       <c r="AK15" s="3">
         <v>0</v>
       </c>
+      <c r="AL15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AM15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AN15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AO15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AP15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AQ15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AR15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AS15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AT15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AU15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AV15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AW15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AX15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AY15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AZ15" s="3">
+        <v>0</v>
+      </c>
+      <c r="BA15" s="3">
+        <v>0</v>
+      </c>
+      <c r="BB15" s="3">
+        <v>0</v>
+      </c>
+      <c r="BC15" s="3">
+        <v>0</v>
+      </c>
+      <c r="BD15" s="3">
+        <v>0</v>
+      </c>
+      <c r="BE15" s="3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="16" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>66</v>
       </c>
@@ -2544,19 +3575,19 @@
         <v>1</v>
       </c>
       <c r="AE16" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF16" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG16" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH16" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI16" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ16" s="3">
         <v>0</v>
@@ -2564,8 +3595,68 @@
       <c r="AK16" s="3">
         <v>0</v>
       </c>
+      <c r="AL16" s="3">
+        <v>0</v>
+      </c>
+      <c r="AM16" s="3">
+        <v>0</v>
+      </c>
+      <c r="AN16" s="3">
+        <v>0</v>
+      </c>
+      <c r="AO16" s="3">
+        <v>0</v>
+      </c>
+      <c r="AP16" s="3">
+        <v>0</v>
+      </c>
+      <c r="AQ16" s="3">
+        <v>0</v>
+      </c>
+      <c r="AR16" s="3">
+        <v>0</v>
+      </c>
+      <c r="AS16" s="3">
+        <v>0</v>
+      </c>
+      <c r="AT16" s="3">
+        <v>0</v>
+      </c>
+      <c r="AU16" s="3">
+        <v>0</v>
+      </c>
+      <c r="AV16" s="3">
+        <v>0</v>
+      </c>
+      <c r="AW16" s="3">
+        <v>0</v>
+      </c>
+      <c r="AX16" s="3">
+        <v>0</v>
+      </c>
+      <c r="AY16" s="3">
+        <v>0</v>
+      </c>
+      <c r="AZ16" s="3">
+        <v>0</v>
+      </c>
+      <c r="BA16" s="3">
+        <v>0</v>
+      </c>
+      <c r="BB16" s="3">
+        <v>0</v>
+      </c>
+      <c r="BC16" s="3">
+        <v>0</v>
+      </c>
+      <c r="BD16" s="3">
+        <v>0</v>
+      </c>
+      <c r="BE16" s="3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="17" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>42</v>
       </c>
@@ -2677,8 +3768,68 @@
       <c r="AK17" s="3">
         <v>0</v>
       </c>
+      <c r="AL17" s="3">
+        <v>0</v>
+      </c>
+      <c r="AM17" s="3">
+        <v>0</v>
+      </c>
+      <c r="AN17" s="3">
+        <v>0</v>
+      </c>
+      <c r="AO17" s="3">
+        <v>0</v>
+      </c>
+      <c r="AP17" s="3">
+        <v>0</v>
+      </c>
+      <c r="AQ17" s="3">
+        <v>0</v>
+      </c>
+      <c r="AR17" s="3">
+        <v>0</v>
+      </c>
+      <c r="AS17" s="3">
+        <v>0</v>
+      </c>
+      <c r="AT17" s="3">
+        <v>0</v>
+      </c>
+      <c r="AU17" s="3">
+        <v>0</v>
+      </c>
+      <c r="AV17" s="3">
+        <v>0</v>
+      </c>
+      <c r="AW17" s="3">
+        <v>0</v>
+      </c>
+      <c r="AX17" s="3">
+        <v>0</v>
+      </c>
+      <c r="AY17" s="3">
+        <v>0</v>
+      </c>
+      <c r="AZ17" s="3">
+        <v>0</v>
+      </c>
+      <c r="BA17" s="3">
+        <v>0</v>
+      </c>
+      <c r="BB17" s="3">
+        <v>0</v>
+      </c>
+      <c r="BC17" s="3">
+        <v>0</v>
+      </c>
+      <c r="BD17" s="3">
+        <v>0</v>
+      </c>
+      <c r="BE17" s="3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="18" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>43</v>
       </c>
@@ -2790,8 +3941,68 @@
       <c r="AK18" s="3">
         <v>0</v>
       </c>
+      <c r="AL18" s="3">
+        <v>0</v>
+      </c>
+      <c r="AM18" s="3">
+        <v>0</v>
+      </c>
+      <c r="AN18" s="3">
+        <v>0</v>
+      </c>
+      <c r="AO18" s="3">
+        <v>0</v>
+      </c>
+      <c r="AP18" s="3">
+        <v>0</v>
+      </c>
+      <c r="AQ18" s="3">
+        <v>0</v>
+      </c>
+      <c r="AR18" s="3">
+        <v>0</v>
+      </c>
+      <c r="AS18" s="3">
+        <v>0</v>
+      </c>
+      <c r="AT18" s="3">
+        <v>0</v>
+      </c>
+      <c r="AU18" s="3">
+        <v>0</v>
+      </c>
+      <c r="AV18" s="3">
+        <v>0</v>
+      </c>
+      <c r="AW18" s="3">
+        <v>0</v>
+      </c>
+      <c r="AX18" s="3">
+        <v>0</v>
+      </c>
+      <c r="AY18" s="3">
+        <v>0</v>
+      </c>
+      <c r="AZ18" s="3">
+        <v>0</v>
+      </c>
+      <c r="BA18" s="3">
+        <v>0</v>
+      </c>
+      <c r="BB18" s="3">
+        <v>0</v>
+      </c>
+      <c r="BC18" s="3">
+        <v>0</v>
+      </c>
+      <c r="BD18" s="3">
+        <v>0</v>
+      </c>
+      <c r="BE18" s="3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="19" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>44</v>
       </c>
@@ -2903,8 +4114,68 @@
       <c r="AK19" s="3">
         <v>0</v>
       </c>
+      <c r="AL19" s="3">
+        <v>0</v>
+      </c>
+      <c r="AM19" s="3">
+        <v>0</v>
+      </c>
+      <c r="AN19" s="3">
+        <v>0</v>
+      </c>
+      <c r="AO19" s="3">
+        <v>0</v>
+      </c>
+      <c r="AP19" s="3">
+        <v>0</v>
+      </c>
+      <c r="AQ19" s="3">
+        <v>0</v>
+      </c>
+      <c r="AR19" s="3">
+        <v>0</v>
+      </c>
+      <c r="AS19" s="3">
+        <v>0</v>
+      </c>
+      <c r="AT19" s="3">
+        <v>0</v>
+      </c>
+      <c r="AU19" s="3">
+        <v>0</v>
+      </c>
+      <c r="AV19" s="3">
+        <v>0</v>
+      </c>
+      <c r="AW19" s="3">
+        <v>0</v>
+      </c>
+      <c r="AX19" s="3">
+        <v>0</v>
+      </c>
+      <c r="AY19" s="3">
+        <v>0</v>
+      </c>
+      <c r="AZ19" s="3">
+        <v>0</v>
+      </c>
+      <c r="BA19" s="3">
+        <v>0</v>
+      </c>
+      <c r="BB19" s="3">
+        <v>0</v>
+      </c>
+      <c r="BC19" s="3">
+        <v>0</v>
+      </c>
+      <c r="BD19" s="3">
+        <v>0</v>
+      </c>
+      <c r="BE19" s="3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="20" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>45</v>
       </c>
@@ -3016,8 +4287,68 @@
       <c r="AK20" s="3">
         <v>0</v>
       </c>
+      <c r="AL20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AM20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AN20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AO20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AP20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AQ20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AR20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AS20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AT20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AU20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AV20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AW20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AX20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AY20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AZ20" s="3">
+        <v>0</v>
+      </c>
+      <c r="BA20" s="3">
+        <v>0</v>
+      </c>
+      <c r="BB20" s="3">
+        <v>0</v>
+      </c>
+      <c r="BC20" s="3">
+        <v>0</v>
+      </c>
+      <c r="BD20" s="3">
+        <v>0</v>
+      </c>
+      <c r="BE20" s="3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="21" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>46</v>
       </c>
@@ -3090,38 +4421,38 @@
       <c r="X21">
         <v>0</v>
       </c>
-      <c r="Y21" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="Z21" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="AA21" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="AB21" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="AC21" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="AD21" s="3" t="s">
-        <v>93</v>
+      <c r="Y21" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z21" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA21" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB21" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC21" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD21" s="3">
+        <v>0</v>
       </c>
       <c r="AE21" s="3">
-        <v>0</v>
+        <v>0.97563025210084031</v>
       </c>
       <c r="AF21" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG21" s="3">
-        <v>0</v>
+        <v>0.83697478991596641</v>
       </c>
       <c r="AH21" s="3">
-        <v>0</v>
+        <v>0.754621848739496</v>
       </c>
       <c r="AI21" s="3">
-        <v>0</v>
+        <v>0.62016806722689077</v>
       </c>
       <c r="AJ21" s="3">
         <v>0</v>
@@ -3129,8 +4460,68 @@
       <c r="AK21" s="3">
         <v>0</v>
       </c>
+      <c r="AL21" s="3">
+        <v>0</v>
+      </c>
+      <c r="AM21" s="3">
+        <v>0</v>
+      </c>
+      <c r="AN21" s="3">
+        <v>0</v>
+      </c>
+      <c r="AO21" s="3">
+        <v>0</v>
+      </c>
+      <c r="AP21" s="3">
+        <v>0</v>
+      </c>
+      <c r="AQ21" s="3">
+        <v>0</v>
+      </c>
+      <c r="AR21" s="3">
+        <v>0</v>
+      </c>
+      <c r="AS21" s="3">
+        <v>0</v>
+      </c>
+      <c r="AT21" s="3">
+        <v>0</v>
+      </c>
+      <c r="AU21" s="3">
+        <v>0</v>
+      </c>
+      <c r="AV21" s="3">
+        <v>0</v>
+      </c>
+      <c r="AW21" s="3">
+        <v>0</v>
+      </c>
+      <c r="AX21" s="3">
+        <v>0</v>
+      </c>
+      <c r="AY21" s="3">
+        <v>0</v>
+      </c>
+      <c r="AZ21" s="3">
+        <v>0</v>
+      </c>
+      <c r="BA21" s="3">
+        <v>0</v>
+      </c>
+      <c r="BB21" s="3">
+        <v>0</v>
+      </c>
+      <c r="BC21" s="3">
+        <v>0</v>
+      </c>
+      <c r="BD21" s="3">
+        <v>0</v>
+      </c>
+      <c r="BE21" s="3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="22" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>41</v>
       </c>
@@ -3222,28 +4613,88 @@
         <v>0</v>
       </c>
       <c r="AE22" s="3">
-        <v>1</v>
-      </c>
-      <c r="AF22">
+        <v>0</v>
+      </c>
+      <c r="AF22" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG22" s="3">
+        <v>0</v>
+      </c>
+      <c r="AH22" s="3">
+        <v>0</v>
+      </c>
+      <c r="AI22" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ22" s="3">
+        <v>1</v>
+      </c>
+      <c r="AK22">
         <v>0.77439797211660322</v>
       </c>
-      <c r="AG22">
+      <c r="AL22">
         <v>0.56147021546261078</v>
       </c>
-      <c r="AH22">
+      <c r="AM22">
         <v>0.83269961977186313</v>
       </c>
-      <c r="AI22">
+      <c r="AN22">
         <v>0.71482889733840294</v>
       </c>
-      <c r="AJ22">
+      <c r="AO22">
         <v>0.94169835234474009</v>
       </c>
-      <c r="AK22">
+      <c r="AP22">
         <v>0.64892268694550059</v>
       </c>
+      <c r="AQ22" s="3">
+        <v>0</v>
+      </c>
+      <c r="AR22" s="3">
+        <v>0</v>
+      </c>
+      <c r="AS22" s="3">
+        <v>0</v>
+      </c>
+      <c r="AT22" s="3">
+        <v>0</v>
+      </c>
+      <c r="AU22" s="3">
+        <v>0</v>
+      </c>
+      <c r="AV22" s="3">
+        <v>0</v>
+      </c>
+      <c r="AW22" s="3">
+        <v>0</v>
+      </c>
+      <c r="AX22" s="3">
+        <v>0</v>
+      </c>
+      <c r="AY22" s="3">
+        <v>0</v>
+      </c>
+      <c r="AZ22" s="3">
+        <v>0</v>
+      </c>
+      <c r="BA22" s="3">
+        <v>0</v>
+      </c>
+      <c r="BB22" s="3">
+        <v>0</v>
+      </c>
+      <c r="BC22" s="3">
+        <v>0</v>
+      </c>
+      <c r="BD22" s="3">
+        <v>0</v>
+      </c>
+      <c r="BE22" s="3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="23" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>47</v>
       </c>
@@ -3355,8 +4806,68 @@
       <c r="AK23" s="3">
         <v>0</v>
       </c>
+      <c r="AL23" s="3">
+        <v>0</v>
+      </c>
+      <c r="AM23" s="3">
+        <v>0</v>
+      </c>
+      <c r="AN23" s="3">
+        <v>0</v>
+      </c>
+      <c r="AO23" s="3">
+        <v>0</v>
+      </c>
+      <c r="AP23" s="3">
+        <v>0</v>
+      </c>
+      <c r="AQ23">
+        <v>0.78797083839611193</v>
+      </c>
+      <c r="AR23">
+        <v>0.81206966383151069</v>
+      </c>
+      <c r="AS23">
+        <v>0.92831105710814099</v>
+      </c>
+      <c r="AT23" s="3">
+        <v>1</v>
+      </c>
+      <c r="AU23">
+        <v>0.98541919805589306</v>
+      </c>
+      <c r="AV23">
+        <v>0.87140542729850157</v>
+      </c>
+      <c r="AW23">
+        <v>0.89712434183880108</v>
+      </c>
+      <c r="AX23" s="3">
+        <v>0</v>
+      </c>
+      <c r="AY23" s="3">
+        <v>0</v>
+      </c>
+      <c r="AZ23" s="3">
+        <v>0</v>
+      </c>
+      <c r="BA23" s="3">
+        <v>0</v>
+      </c>
+      <c r="BB23" s="3">
+        <v>0</v>
+      </c>
+      <c r="BC23" s="3">
+        <v>0</v>
+      </c>
+      <c r="BD23" s="3">
+        <v>0</v>
+      </c>
+      <c r="BE23" s="3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="24" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>48</v>
       </c>
@@ -3468,8 +4979,68 @@
       <c r="AK24" s="3">
         <v>0</v>
       </c>
+      <c r="AL24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AM24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AN24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AO24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AP24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AQ24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AR24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AS24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AT24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AU24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AV24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AW24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AX24" s="3">
+        <v>1</v>
+      </c>
+      <c r="AY24" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="AZ24" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="BA24" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="BB24" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="BC24" s="3">
+        <v>0</v>
+      </c>
+      <c r="BD24" s="3">
+        <v>0</v>
+      </c>
+      <c r="BE24" s="3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="25" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>49</v>
       </c>
@@ -3581,8 +5152,68 @@
       <c r="AK25" s="3">
         <v>0</v>
       </c>
+      <c r="AL25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AM25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AN25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AO25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AP25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AQ25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AR25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AS25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AT25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AU25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AV25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AW25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AX25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AY25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AZ25" s="3">
+        <v>0</v>
+      </c>
+      <c r="BA25" s="3">
+        <v>0</v>
+      </c>
+      <c r="BB25" s="3">
+        <v>0</v>
+      </c>
+      <c r="BC25" s="3">
+        <v>1</v>
+      </c>
+      <c r="BD25" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="BE25" s="3">
+        <v>0.2</v>
+      </c>
     </row>
-    <row r="26" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>50</v>
       </c>
@@ -3674,28 +5305,88 @@
         <v>1</v>
       </c>
       <c r="AE26" s="3">
+        <v>0.68594306049822074</v>
+      </c>
+      <c r="AF26" s="3">
+        <v>0.22456310679611652</v>
+      </c>
+      <c r="AG26" s="3">
+        <v>1</v>
+      </c>
+      <c r="AH26" s="3">
+        <v>0.41765980498374872</v>
+      </c>
+      <c r="AI26" s="3">
+        <v>0.42354880058597327</v>
+      </c>
+      <c r="AJ26" s="3">
         <v>0.05</v>
       </c>
-      <c r="AF26">
+      <c r="AK26">
         <v>0.6428571428571429</v>
       </c>
-      <c r="AG26">
+      <c r="AL26">
         <v>0.68</v>
       </c>
-      <c r="AH26">
+      <c r="AM26">
         <v>0.44285714285714284</v>
       </c>
-      <c r="AI26">
-        <v>1</v>
-      </c>
-      <c r="AJ26">
+      <c r="AN26">
+        <v>1</v>
+      </c>
+      <c r="AO26">
         <v>0.21428571428571427</v>
       </c>
-      <c r="AK26">
+      <c r="AP26">
         <v>0.41285714285714281</v>
       </c>
+      <c r="AQ26">
+        <v>0.88189541701567542</v>
+      </c>
+      <c r="AR26">
+        <v>0.98397863818424569</v>
+      </c>
+      <c r="AS26">
+        <v>0.32770120053357049</v>
+      </c>
+      <c r="AT26" s="3">
+        <v>1</v>
+      </c>
+      <c r="AU26">
+        <v>5.0125824661633678E-2</v>
+      </c>
+      <c r="AV26">
+        <v>0.63644214162348878</v>
+      </c>
+      <c r="AW26">
+        <v>0.17353425947727807</v>
+      </c>
+      <c r="AX26" s="3">
+        <v>1</v>
+      </c>
+      <c r="AY26" s="3">
+        <v>1</v>
+      </c>
+      <c r="AZ26" s="3">
+        <v>1</v>
+      </c>
+      <c r="BA26" s="3">
+        <v>1</v>
+      </c>
+      <c r="BB26" s="3">
+        <v>1</v>
+      </c>
+      <c r="BC26" s="3">
+        <v>1</v>
+      </c>
+      <c r="BD26" s="3">
+        <v>1</v>
+      </c>
+      <c r="BE26" s="3">
+        <v>1</v>
+      </c>
     </row>
-    <row r="27" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>51</v>
       </c>
@@ -3811,39 +5502,111 @@
         <v>0.25282695859800874</v>
       </c>
       <c r="AD27">
-        <f t="shared" ref="AD27:AK27" si="3">AD26*AD28</f>
+        <f t="shared" ref="AD27:AI27" si="3">AD26*AD28</f>
         <v>0.83730158730158721</v>
       </c>
       <c r="AE27">
         <f t="shared" si="3"/>
-        <v>0.05</v>
+        <v>0.66922680104070109</v>
       </c>
       <c r="AF27">
         <f t="shared" si="3"/>
-        <v>0.49782726778924496</v>
+        <v>0.22456310679611652</v>
       </c>
       <c r="AG27">
         <f t="shared" si="3"/>
-        <v>0.38179974651457538</v>
+        <v>0.83697478991596641</v>
       </c>
       <c r="AH27">
         <f t="shared" si="3"/>
-        <v>0.36876697447039652</v>
+        <v>0.3151752141810138</v>
       </c>
       <c r="AI27">
         <f t="shared" si="3"/>
+        <v>0.26267144103567081</v>
+      </c>
+      <c r="AJ27">
+        <f t="shared" ref="AJ27:AP27" si="4">AJ26*AJ28</f>
+        <v>0.05</v>
+      </c>
+      <c r="AK27">
+        <f t="shared" si="4"/>
+        <v>0.49782726778924496</v>
+      </c>
+      <c r="AL27">
+        <f t="shared" si="4"/>
+        <v>0.38179974651457538</v>
+      </c>
+      <c r="AM27">
+        <f t="shared" si="4"/>
+        <v>0.36876697447039652</v>
+      </c>
+      <c r="AN27">
+        <f t="shared" si="4"/>
         <v>0.71482889733840294</v>
       </c>
-      <c r="AJ27">
-        <f t="shared" si="3"/>
+      <c r="AO27">
+        <f t="shared" si="4"/>
         <v>0.20179250407387286</v>
       </c>
-      <c r="AK27">
-        <f t="shared" si="3"/>
+      <c r="AP27">
+        <f t="shared" si="4"/>
         <v>0.2679123664674995</v>
       </c>
+      <c r="AQ27">
+        <f t="shared" ref="AQ27" si="5">AQ26*AQ28</f>
+        <v>0.69490787112353047</v>
+      </c>
+      <c r="AR27">
+        <f t="shared" ref="AR27" si="6">AR26*AR28</f>
+        <v>0.79905920192766811</v>
+      </c>
+      <c r="AS27">
+        <f t="shared" ref="AS27" si="7">AS26*AS28</f>
+        <v>0.30420864788292573</v>
+      </c>
+      <c r="AT27">
+        <f t="shared" ref="AT27" si="8">AT26*AT28</f>
+        <v>1</v>
+      </c>
+      <c r="AU27">
+        <f t="shared" ref="AU27" si="9">AU26*AU28</f>
+        <v>4.9394949939957369E-2</v>
+      </c>
+      <c r="AV27">
+        <f t="shared" ref="AV27" si="10">AV26*AV28</f>
+        <v>0.55459913637218972</v>
+      </c>
+      <c r="AW27">
+        <f t="shared" ref="AW27" si="11">AW26*AW28</f>
+        <v>0.15568180832003681</v>
+      </c>
+      <c r="AX27" s="3">
+        <v>1</v>
+      </c>
+      <c r="AY27" s="3">
+        <v>1</v>
+      </c>
+      <c r="AZ27" s="3">
+        <v>1</v>
+      </c>
+      <c r="BA27" s="3">
+        <v>1</v>
+      </c>
+      <c r="BB27" s="3">
+        <v>1</v>
+      </c>
+      <c r="BC27" s="3">
+        <v>1</v>
+      </c>
+      <c r="BD27" s="3">
+        <v>1</v>
+      </c>
+      <c r="BE27" s="3">
+        <v>1</v>
+      </c>
     </row>
-    <row r="28" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>52</v>
       </c>
@@ -3934,36 +5697,108 @@
       <c r="AD28" s="3">
         <v>0.83730158730158721</v>
       </c>
-      <c r="AE28">
-        <f>AE22</f>
-        <v>1</v>
-      </c>
-      <c r="AF28">
-        <f t="shared" ref="AF28:AK28" si="4">AF22</f>
+      <c r="AE28" s="3">
+        <f>AE21</f>
+        <v>0.97563025210084031</v>
+      </c>
+      <c r="AF28" s="3">
+        <f t="shared" ref="AF28:AI28" si="12">AF21</f>
+        <v>1</v>
+      </c>
+      <c r="AG28" s="3">
+        <f t="shared" si="12"/>
+        <v>0.83697478991596641</v>
+      </c>
+      <c r="AH28" s="3">
+        <f t="shared" si="12"/>
+        <v>0.754621848739496</v>
+      </c>
+      <c r="AI28" s="3">
+        <f t="shared" si="12"/>
+        <v>0.62016806722689077</v>
+      </c>
+      <c r="AJ28">
+        <f>AJ22</f>
+        <v>1</v>
+      </c>
+      <c r="AK28">
+        <f t="shared" ref="AK28:AP28" si="13">AK22</f>
         <v>0.77439797211660322</v>
       </c>
-      <c r="AG28">
-        <f t="shared" si="4"/>
+      <c r="AL28">
+        <f t="shared" si="13"/>
         <v>0.56147021546261078</v>
       </c>
-      <c r="AH28">
-        <f t="shared" si="4"/>
+      <c r="AM28">
+        <f t="shared" si="13"/>
         <v>0.83269961977186313</v>
       </c>
-      <c r="AI28">
-        <f t="shared" si="4"/>
+      <c r="AN28">
+        <f t="shared" si="13"/>
         <v>0.71482889733840294</v>
       </c>
-      <c r="AJ28">
-        <f t="shared" si="4"/>
+      <c r="AO28">
+        <f t="shared" si="13"/>
         <v>0.94169835234474009</v>
       </c>
-      <c r="AK28">
-        <f t="shared" si="4"/>
+      <c r="AP28">
+        <f t="shared" si="13"/>
         <v>0.64892268694550059</v>
       </c>
+      <c r="AQ28">
+        <f>AQ23</f>
+        <v>0.78797083839611193</v>
+      </c>
+      <c r="AR28">
+        <f t="shared" ref="AR28:AW28" si="14">AR23</f>
+        <v>0.81206966383151069</v>
+      </c>
+      <c r="AS28">
+        <f t="shared" si="14"/>
+        <v>0.92831105710814099</v>
+      </c>
+      <c r="AT28">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="AU28">
+        <f t="shared" si="14"/>
+        <v>0.98541919805589306</v>
+      </c>
+      <c r="AV28">
+        <f t="shared" si="14"/>
+        <v>0.87140542729850157</v>
+      </c>
+      <c r="AW28">
+        <f t="shared" si="14"/>
+        <v>0.89712434183880108</v>
+      </c>
+      <c r="AX28" s="3">
+        <v>1</v>
+      </c>
+      <c r="AY28" s="3">
+        <v>1</v>
+      </c>
+      <c r="AZ28" s="3">
+        <v>1</v>
+      </c>
+      <c r="BA28" s="3">
+        <v>1</v>
+      </c>
+      <c r="BB28" s="3">
+        <v>1</v>
+      </c>
+      <c r="BC28" s="3">
+        <v>1</v>
+      </c>
+      <c r="BD28" s="3">
+        <v>1</v>
+      </c>
+      <c r="BE28" s="3">
+        <v>1</v>
+      </c>
     </row>
-    <row r="29" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>59</v>
       </c>
@@ -4075,8 +5910,68 @@
       <c r="AK29" s="3">
         <v>1</v>
       </c>
+      <c r="AL29" s="3">
+        <v>1</v>
+      </c>
+      <c r="AM29" s="3">
+        <v>1</v>
+      </c>
+      <c r="AN29" s="3">
+        <v>1</v>
+      </c>
+      <c r="AO29" s="3">
+        <v>1</v>
+      </c>
+      <c r="AP29" s="3">
+        <v>1</v>
+      </c>
+      <c r="AQ29" s="3">
+        <v>1</v>
+      </c>
+      <c r="AR29" s="3">
+        <v>1</v>
+      </c>
+      <c r="AS29" s="3">
+        <v>1</v>
+      </c>
+      <c r="AT29" s="3">
+        <v>1</v>
+      </c>
+      <c r="AU29" s="3">
+        <v>1</v>
+      </c>
+      <c r="AV29" s="3">
+        <v>1</v>
+      </c>
+      <c r="AW29" s="3">
+        <v>1</v>
+      </c>
+      <c r="AX29" s="3">
+        <v>1</v>
+      </c>
+      <c r="AY29" s="3">
+        <v>1</v>
+      </c>
+      <c r="AZ29" s="3">
+        <v>1</v>
+      </c>
+      <c r="BA29" s="3">
+        <v>1</v>
+      </c>
+      <c r="BB29" s="3">
+        <v>1</v>
+      </c>
+      <c r="BC29" s="3">
+        <v>1</v>
+      </c>
+      <c r="BD29" s="3">
+        <v>1</v>
+      </c>
+      <c r="BE29" s="3">
+        <v>1</v>
+      </c>
     </row>
-    <row r="30" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>53</v>
       </c>
@@ -4188,8 +6083,68 @@
       <c r="AK30" s="3">
         <v>1</v>
       </c>
+      <c r="AL30" s="3">
+        <v>1</v>
+      </c>
+      <c r="AM30" s="3">
+        <v>1</v>
+      </c>
+      <c r="AN30" s="3">
+        <v>1</v>
+      </c>
+      <c r="AO30" s="3">
+        <v>1</v>
+      </c>
+      <c r="AP30" s="3">
+        <v>1</v>
+      </c>
+      <c r="AQ30" s="3">
+        <v>1</v>
+      </c>
+      <c r="AR30" s="3">
+        <v>1</v>
+      </c>
+      <c r="AS30" s="3">
+        <v>1</v>
+      </c>
+      <c r="AT30" s="3">
+        <v>1</v>
+      </c>
+      <c r="AU30" s="3">
+        <v>1</v>
+      </c>
+      <c r="AV30" s="3">
+        <v>1</v>
+      </c>
+      <c r="AW30" s="3">
+        <v>1</v>
+      </c>
+      <c r="AX30" s="3">
+        <v>1</v>
+      </c>
+      <c r="AY30" s="3">
+        <v>1</v>
+      </c>
+      <c r="AZ30" s="3">
+        <v>1</v>
+      </c>
+      <c r="BA30" s="3">
+        <v>1</v>
+      </c>
+      <c r="BB30" s="3">
+        <v>1</v>
+      </c>
+      <c r="BC30" s="3">
+        <v>1</v>
+      </c>
+      <c r="BD30" s="3">
+        <v>1</v>
+      </c>
+      <c r="BE30" s="3">
+        <v>1</v>
+      </c>
     </row>
-    <row r="31" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>54</v>
       </c>
@@ -4301,8 +6256,68 @@
       <c r="AK31" s="3">
         <v>1</v>
       </c>
+      <c r="AL31" s="3">
+        <v>1</v>
+      </c>
+      <c r="AM31" s="3">
+        <v>1</v>
+      </c>
+      <c r="AN31" s="3">
+        <v>1</v>
+      </c>
+      <c r="AO31" s="3">
+        <v>1</v>
+      </c>
+      <c r="AP31" s="3">
+        <v>1</v>
+      </c>
+      <c r="AQ31" s="3">
+        <v>1</v>
+      </c>
+      <c r="AR31" s="3">
+        <v>1</v>
+      </c>
+      <c r="AS31" s="3">
+        <v>1</v>
+      </c>
+      <c r="AT31" s="3">
+        <v>1</v>
+      </c>
+      <c r="AU31" s="3">
+        <v>1</v>
+      </c>
+      <c r="AV31" s="3">
+        <v>1</v>
+      </c>
+      <c r="AW31" s="3">
+        <v>1</v>
+      </c>
+      <c r="AX31" s="3">
+        <v>1</v>
+      </c>
+      <c r="AY31" s="3">
+        <v>1</v>
+      </c>
+      <c r="AZ31" s="3">
+        <v>1</v>
+      </c>
+      <c r="BA31" s="3">
+        <v>1</v>
+      </c>
+      <c r="BB31" s="3">
+        <v>1</v>
+      </c>
+      <c r="BC31" s="3">
+        <v>1</v>
+      </c>
+      <c r="BD31" s="3">
+        <v>1</v>
+      </c>
+      <c r="BE31" s="3">
+        <v>1</v>
+      </c>
     </row>
-    <row r="32" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>55</v>
       </c>
@@ -4414,8 +6429,68 @@
       <c r="AK32" s="3">
         <v>1</v>
       </c>
+      <c r="AL32" s="3">
+        <v>1</v>
+      </c>
+      <c r="AM32" s="3">
+        <v>1</v>
+      </c>
+      <c r="AN32" s="3">
+        <v>1</v>
+      </c>
+      <c r="AO32" s="3">
+        <v>1</v>
+      </c>
+      <c r="AP32" s="3">
+        <v>1</v>
+      </c>
+      <c r="AQ32" s="3">
+        <v>1</v>
+      </c>
+      <c r="AR32" s="3">
+        <v>1</v>
+      </c>
+      <c r="AS32" s="3">
+        <v>1</v>
+      </c>
+      <c r="AT32" s="3">
+        <v>1</v>
+      </c>
+      <c r="AU32" s="3">
+        <v>1</v>
+      </c>
+      <c r="AV32" s="3">
+        <v>1</v>
+      </c>
+      <c r="AW32" s="3">
+        <v>1</v>
+      </c>
+      <c r="AX32" s="3">
+        <v>1</v>
+      </c>
+      <c r="AY32" s="3">
+        <v>1</v>
+      </c>
+      <c r="AZ32" s="3">
+        <v>1</v>
+      </c>
+      <c r="BA32" s="3">
+        <v>1</v>
+      </c>
+      <c r="BB32" s="3">
+        <v>1</v>
+      </c>
+      <c r="BC32" s="3">
+        <v>1</v>
+      </c>
+      <c r="BD32" s="3">
+        <v>1</v>
+      </c>
+      <c r="BE32" s="3">
+        <v>1</v>
+      </c>
     </row>
-    <row r="33" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>56</v>
       </c>
@@ -4527,8 +6602,68 @@
       <c r="AK33" s="3">
         <v>1</v>
       </c>
+      <c r="AL33" s="3">
+        <v>1</v>
+      </c>
+      <c r="AM33" s="3">
+        <v>1</v>
+      </c>
+      <c r="AN33" s="3">
+        <v>1</v>
+      </c>
+      <c r="AO33" s="3">
+        <v>1</v>
+      </c>
+      <c r="AP33" s="3">
+        <v>1</v>
+      </c>
+      <c r="AQ33" s="3">
+        <v>1</v>
+      </c>
+      <c r="AR33" s="3">
+        <v>1</v>
+      </c>
+      <c r="AS33" s="3">
+        <v>1</v>
+      </c>
+      <c r="AT33" s="3">
+        <v>1</v>
+      </c>
+      <c r="AU33" s="3">
+        <v>1</v>
+      </c>
+      <c r="AV33" s="3">
+        <v>1</v>
+      </c>
+      <c r="AW33" s="3">
+        <v>1</v>
+      </c>
+      <c r="AX33" s="3">
+        <v>1</v>
+      </c>
+      <c r="AY33" s="3">
+        <v>1</v>
+      </c>
+      <c r="AZ33" s="3">
+        <v>1</v>
+      </c>
+      <c r="BA33" s="3">
+        <v>1</v>
+      </c>
+      <c r="BB33" s="3">
+        <v>1</v>
+      </c>
+      <c r="BC33" s="3">
+        <v>1</v>
+      </c>
+      <c r="BD33" s="3">
+        <v>1</v>
+      </c>
+      <c r="BE33" s="3">
+        <v>1</v>
+      </c>
     </row>
-    <row r="34" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>57</v>
       </c>
@@ -4640,8 +6775,68 @@
       <c r="AK34" s="3">
         <v>1</v>
       </c>
+      <c r="AL34" s="3">
+        <v>1</v>
+      </c>
+      <c r="AM34" s="3">
+        <v>1</v>
+      </c>
+      <c r="AN34" s="3">
+        <v>1</v>
+      </c>
+      <c r="AO34" s="3">
+        <v>1</v>
+      </c>
+      <c r="AP34" s="3">
+        <v>1</v>
+      </c>
+      <c r="AQ34" s="3">
+        <v>1</v>
+      </c>
+      <c r="AR34" s="3">
+        <v>1</v>
+      </c>
+      <c r="AS34" s="3">
+        <v>1</v>
+      </c>
+      <c r="AT34" s="3">
+        <v>1</v>
+      </c>
+      <c r="AU34" s="3">
+        <v>1</v>
+      </c>
+      <c r="AV34" s="3">
+        <v>1</v>
+      </c>
+      <c r="AW34" s="3">
+        <v>1</v>
+      </c>
+      <c r="AX34" s="3">
+        <v>1</v>
+      </c>
+      <c r="AY34" s="3">
+        <v>1</v>
+      </c>
+      <c r="AZ34" s="3">
+        <v>1</v>
+      </c>
+      <c r="BA34" s="3">
+        <v>1</v>
+      </c>
+      <c r="BB34" s="3">
+        <v>1</v>
+      </c>
+      <c r="BC34" s="3">
+        <v>1</v>
+      </c>
+      <c r="BD34" s="3">
+        <v>1</v>
+      </c>
+      <c r="BE34" s="3">
+        <v>1</v>
+      </c>
     </row>
-    <row r="35" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>58</v>
       </c>
@@ -4753,8 +6948,68 @@
       <c r="AK35" s="3">
         <v>1</v>
       </c>
+      <c r="AL35" s="3">
+        <v>1</v>
+      </c>
+      <c r="AM35" s="3">
+        <v>1</v>
+      </c>
+      <c r="AN35" s="3">
+        <v>1</v>
+      </c>
+      <c r="AO35" s="3">
+        <v>1</v>
+      </c>
+      <c r="AP35" s="3">
+        <v>1</v>
+      </c>
+      <c r="AQ35" s="3">
+        <v>1</v>
+      </c>
+      <c r="AR35" s="3">
+        <v>1</v>
+      </c>
+      <c r="AS35" s="3">
+        <v>1</v>
+      </c>
+      <c r="AT35" s="3">
+        <v>1</v>
+      </c>
+      <c r="AU35" s="3">
+        <v>1</v>
+      </c>
+      <c r="AV35" s="3">
+        <v>1</v>
+      </c>
+      <c r="AW35" s="3">
+        <v>1</v>
+      </c>
+      <c r="AX35" s="3">
+        <v>1</v>
+      </c>
+      <c r="AY35" s="3">
+        <v>1</v>
+      </c>
+      <c r="AZ35" s="3">
+        <v>1</v>
+      </c>
+      <c r="BA35" s="3">
+        <v>1</v>
+      </c>
+      <c r="BB35" s="3">
+        <v>1</v>
+      </c>
+      <c r="BC35" s="3">
+        <v>1</v>
+      </c>
+      <c r="BD35" s="3">
+        <v>1</v>
+      </c>
+      <c r="BE35" s="3">
+        <v>1</v>
+      </c>
     </row>
-    <row r="36" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>60</v>
       </c>
@@ -4866,8 +7121,68 @@
       <c r="AK36" s="3">
         <v>1</v>
       </c>
+      <c r="AL36" s="3">
+        <v>1</v>
+      </c>
+      <c r="AM36" s="3">
+        <v>1</v>
+      </c>
+      <c r="AN36" s="3">
+        <v>1</v>
+      </c>
+      <c r="AO36" s="3">
+        <v>1</v>
+      </c>
+      <c r="AP36" s="3">
+        <v>1</v>
+      </c>
+      <c r="AQ36" s="3">
+        <v>1</v>
+      </c>
+      <c r="AR36" s="3">
+        <v>1</v>
+      </c>
+      <c r="AS36" s="3">
+        <v>1</v>
+      </c>
+      <c r="AT36" s="3">
+        <v>1</v>
+      </c>
+      <c r="AU36" s="3">
+        <v>1</v>
+      </c>
+      <c r="AV36" s="3">
+        <v>1</v>
+      </c>
+      <c r="AW36" s="3">
+        <v>1</v>
+      </c>
+      <c r="AX36" s="3">
+        <v>1</v>
+      </c>
+      <c r="AY36" s="3">
+        <v>1</v>
+      </c>
+      <c r="AZ36" s="3">
+        <v>1</v>
+      </c>
+      <c r="BA36" s="3">
+        <v>1</v>
+      </c>
+      <c r="BB36" s="3">
+        <v>1</v>
+      </c>
+      <c r="BC36" s="3">
+        <v>1</v>
+      </c>
+      <c r="BD36" s="3">
+        <v>1</v>
+      </c>
+      <c r="BE36" s="3">
+        <v>1</v>
+      </c>
     </row>
-    <row r="37" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>61</v>
       </c>
@@ -4979,8 +7294,68 @@
       <c r="AK37" s="3">
         <v>1</v>
       </c>
+      <c r="AL37" s="3">
+        <v>1</v>
+      </c>
+      <c r="AM37" s="3">
+        <v>1</v>
+      </c>
+      <c r="AN37" s="3">
+        <v>1</v>
+      </c>
+      <c r="AO37" s="3">
+        <v>1</v>
+      </c>
+      <c r="AP37" s="3">
+        <v>1</v>
+      </c>
+      <c r="AQ37" s="3">
+        <v>1</v>
+      </c>
+      <c r="AR37" s="3">
+        <v>1</v>
+      </c>
+      <c r="AS37" s="3">
+        <v>1</v>
+      </c>
+      <c r="AT37" s="3">
+        <v>1</v>
+      </c>
+      <c r="AU37" s="3">
+        <v>1</v>
+      </c>
+      <c r="AV37" s="3">
+        <v>1</v>
+      </c>
+      <c r="AW37" s="3">
+        <v>1</v>
+      </c>
+      <c r="AX37" s="3">
+        <v>1</v>
+      </c>
+      <c r="AY37" s="3">
+        <v>1</v>
+      </c>
+      <c r="AZ37" s="3">
+        <v>1</v>
+      </c>
+      <c r="BA37" s="3">
+        <v>1</v>
+      </c>
+      <c r="BB37" s="3">
+        <v>1</v>
+      </c>
+      <c r="BC37" s="3">
+        <v>1</v>
+      </c>
+      <c r="BD37" s="3">
+        <v>1</v>
+      </c>
+      <c r="BE37" s="3">
+        <v>1</v>
+      </c>
     </row>
-    <row r="38" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>62</v>
       </c>
@@ -5092,8 +7467,68 @@
       <c r="AK38" s="3">
         <v>1</v>
       </c>
+      <c r="AL38" s="3">
+        <v>1</v>
+      </c>
+      <c r="AM38" s="3">
+        <v>1</v>
+      </c>
+      <c r="AN38" s="3">
+        <v>1</v>
+      </c>
+      <c r="AO38" s="3">
+        <v>1</v>
+      </c>
+      <c r="AP38" s="3">
+        <v>1</v>
+      </c>
+      <c r="AQ38" s="3">
+        <v>1</v>
+      </c>
+      <c r="AR38" s="3">
+        <v>1</v>
+      </c>
+      <c r="AS38" s="3">
+        <v>1</v>
+      </c>
+      <c r="AT38" s="3">
+        <v>1</v>
+      </c>
+      <c r="AU38" s="3">
+        <v>1</v>
+      </c>
+      <c r="AV38" s="3">
+        <v>1</v>
+      </c>
+      <c r="AW38" s="3">
+        <v>1</v>
+      </c>
+      <c r="AX38" s="3">
+        <v>1</v>
+      </c>
+      <c r="AY38" s="3">
+        <v>1</v>
+      </c>
+      <c r="AZ38" s="3">
+        <v>1</v>
+      </c>
+      <c r="BA38" s="3">
+        <v>1</v>
+      </c>
+      <c r="BB38" s="3">
+        <v>1</v>
+      </c>
+      <c r="BC38" s="3">
+        <v>1</v>
+      </c>
+      <c r="BD38" s="3">
+        <v>1</v>
+      </c>
+      <c r="BE38" s="3">
+        <v>1</v>
+      </c>
     </row>
-    <row r="39" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>63</v>
       </c>
@@ -5205,8 +7640,68 @@
       <c r="AK39" s="3">
         <v>1</v>
       </c>
+      <c r="AL39" s="3">
+        <v>1</v>
+      </c>
+      <c r="AM39" s="3">
+        <v>1</v>
+      </c>
+      <c r="AN39" s="3">
+        <v>1</v>
+      </c>
+      <c r="AO39" s="3">
+        <v>1</v>
+      </c>
+      <c r="AP39" s="3">
+        <v>1</v>
+      </c>
+      <c r="AQ39" s="3">
+        <v>1</v>
+      </c>
+      <c r="AR39" s="3">
+        <v>1</v>
+      </c>
+      <c r="AS39" s="3">
+        <v>1</v>
+      </c>
+      <c r="AT39" s="3">
+        <v>1</v>
+      </c>
+      <c r="AU39" s="3">
+        <v>1</v>
+      </c>
+      <c r="AV39" s="3">
+        <v>1</v>
+      </c>
+      <c r="AW39" s="3">
+        <v>1</v>
+      </c>
+      <c r="AX39" s="3">
+        <v>1</v>
+      </c>
+      <c r="AY39" s="3">
+        <v>1</v>
+      </c>
+      <c r="AZ39" s="3">
+        <v>1</v>
+      </c>
+      <c r="BA39" s="3">
+        <v>1</v>
+      </c>
+      <c r="BB39" s="3">
+        <v>1</v>
+      </c>
+      <c r="BC39" s="3">
+        <v>1</v>
+      </c>
+      <c r="BD39" s="3">
+        <v>1</v>
+      </c>
+      <c r="BE39" s="3">
+        <v>1</v>
+      </c>
     </row>
-    <row r="40" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>64</v>
       </c>
@@ -5318,8 +7813,68 @@
       <c r="AK40" s="3">
         <v>1</v>
       </c>
+      <c r="AL40" s="3">
+        <v>1</v>
+      </c>
+      <c r="AM40" s="3">
+        <v>1</v>
+      </c>
+      <c r="AN40" s="3">
+        <v>1</v>
+      </c>
+      <c r="AO40" s="3">
+        <v>1</v>
+      </c>
+      <c r="AP40" s="3">
+        <v>1</v>
+      </c>
+      <c r="AQ40" s="3">
+        <v>1</v>
+      </c>
+      <c r="AR40" s="3">
+        <v>1</v>
+      </c>
+      <c r="AS40" s="3">
+        <v>1</v>
+      </c>
+      <c r="AT40" s="3">
+        <v>1</v>
+      </c>
+      <c r="AU40" s="3">
+        <v>1</v>
+      </c>
+      <c r="AV40" s="3">
+        <v>1</v>
+      </c>
+      <c r="AW40" s="3">
+        <v>1</v>
+      </c>
+      <c r="AX40" s="3">
+        <v>1</v>
+      </c>
+      <c r="AY40" s="3">
+        <v>1</v>
+      </c>
+      <c r="AZ40" s="3">
+        <v>1</v>
+      </c>
+      <c r="BA40" s="3">
+        <v>1</v>
+      </c>
+      <c r="BB40" s="3">
+        <v>1</v>
+      </c>
+      <c r="BC40" s="3">
+        <v>1</v>
+      </c>
+      <c r="BD40" s="3">
+        <v>1</v>
+      </c>
+      <c r="BE40" s="3">
+        <v>1</v>
+      </c>
     </row>
-    <row r="41" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>65</v>
       </c>
@@ -5429,6 +7984,66 @@
         <v>1</v>
       </c>
       <c r="AK41" s="3">
+        <v>1</v>
+      </c>
+      <c r="AL41" s="3">
+        <v>1</v>
+      </c>
+      <c r="AM41" s="3">
+        <v>1</v>
+      </c>
+      <c r="AN41" s="3">
+        <v>1</v>
+      </c>
+      <c r="AO41" s="3">
+        <v>1</v>
+      </c>
+      <c r="AP41" s="3">
+        <v>1</v>
+      </c>
+      <c r="AQ41" s="3">
+        <v>1</v>
+      </c>
+      <c r="AR41" s="3">
+        <v>1</v>
+      </c>
+      <c r="AS41" s="3">
+        <v>1</v>
+      </c>
+      <c r="AT41" s="3">
+        <v>1</v>
+      </c>
+      <c r="AU41" s="3">
+        <v>1</v>
+      </c>
+      <c r="AV41" s="3">
+        <v>1</v>
+      </c>
+      <c r="AW41" s="3">
+        <v>1</v>
+      </c>
+      <c r="AX41" s="3">
+        <v>1</v>
+      </c>
+      <c r="AY41" s="3">
+        <v>1</v>
+      </c>
+      <c r="AZ41" s="3">
+        <v>1</v>
+      </c>
+      <c r="BA41" s="3">
+        <v>1</v>
+      </c>
+      <c r="BB41" s="3">
+        <v>1</v>
+      </c>
+      <c r="BC41" s="3">
+        <v>1</v>
+      </c>
+      <c r="BD41" s="3">
+        <v>1</v>
+      </c>
+      <c r="BE41" s="3">
         <v>1</v>
       </c>
     </row>

--- a/ai_sustainability/datas/Weight_matrix.xlsx
+++ b/ai_sustainability/datas/Weight_matrix.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hennecarta\Documents\Graph_decision_AI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A2B829B-9FC9-4283-AD6A-348A10AFBE7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE64586E-E81A-4B5F-949E-4150CF78200A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-60" yWindow="-16320" windowWidth="29040" windowHeight="16440" xr2:uid="{AC26B5E7-4148-4700-AAF1-8A62823EFFAF}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{AC26B5E7-4148-4700-AAF1-8A62823EFFAF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -865,7 +865,7 @@
   <dimension ref="A1:BE41"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M19" sqref="M19"/>
+      <selection activeCell="M21" sqref="M21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2613,43 +2613,43 @@
         <v>70</v>
       </c>
       <c r="C11">
-        <v>0.69875000000000009</v>
+        <v>0.38397624332593427</v>
       </c>
       <c r="D11">
-        <v>0.90125000000000011</v>
+        <v>0.80570241691842903</v>
       </c>
       <c r="E11">
-        <v>0.36916666666666675</v>
+        <v>0.72379283048739118</v>
       </c>
       <c r="F11">
-        <v>0.89083333333333337</v>
+        <v>0.86155606407322649</v>
       </c>
       <c r="G11">
-        <v>0.36916666666666698</v>
+        <v>0.72134565535895412</v>
       </c>
       <c r="H11">
-        <v>0.82208333333333339</v>
+        <v>0.79223913850724093</v>
       </c>
       <c r="I11">
-        <v>0.84958333333333336</v>
+        <v>0.93547208418591055</v>
       </c>
       <c r="J11">
-        <v>0.92958333333333332</v>
+        <v>0.88197602315006185</v>
       </c>
       <c r="K11">
-        <v>0.90416666666666667</v>
+        <v>0.93410683012259177</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.89504964340651649</v>
       </c>
       <c r="M11">
-        <v>0.98875000000000002</v>
+        <v>0.92599826388888862</v>
       </c>
       <c r="N11">
-        <v>0.87333333333333329</v>
+        <v>0.97153916211293256</v>
       </c>
       <c r="O11">
-        <v>0.98625000000000007</v>
+        <v>1</v>
       </c>
       <c r="P11">
         <v>0</v>
@@ -2786,43 +2786,43 @@
         <v>71</v>
       </c>
       <c r="C12">
-        <v>0.57032645000000004</v>
+        <v>0.36910994764397914</v>
       </c>
       <c r="D12">
-        <v>0.96421844999999995</v>
+        <v>0.64090909090909109</v>
       </c>
       <c r="E12">
-        <v>0.66134511666666662</v>
+        <v>0.21837893649974191</v>
       </c>
       <c r="F12">
-        <v>0.96346894999999999</v>
+        <v>0.61751824817518275</v>
       </c>
       <c r="G12">
-        <v>0.66134511666666662</v>
+        <v>0.21837893649974191</v>
       </c>
       <c r="H12">
-        <v>0.94884511666666671</v>
+        <v>0.4976470588235295</v>
       </c>
       <c r="I12">
-        <v>0.97717845000000003</v>
+        <v>0.53954081632653073</v>
       </c>
       <c r="J12">
-        <v>0.99062286666666666</v>
+        <v>0.71452702702702697</v>
       </c>
       <c r="K12">
-        <v>0.96891444999999998</v>
+        <v>0.64777947932618685</v>
       </c>
       <c r="L12">
-        <v>0.99506003333333304</v>
+        <v>1</v>
       </c>
       <c r="M12">
-        <v>1</v>
+        <v>0.94</v>
       </c>
       <c r="N12">
-        <v>0.96574611666666699</v>
+        <v>0.58184319119669881</v>
       </c>
       <c r="O12">
-        <v>0.99590986666666703</v>
+        <v>0.92763157894736858</v>
       </c>
       <c r="P12">
         <v>0</v>
@@ -2959,56 +2959,56 @@
         <v>72</v>
       </c>
       <c r="C13">
-        <f>(C12+C11)/2</f>
-        <v>0.63453822500000001</v>
+        <f>C12*C11</f>
+        <v>0.14172945107056739</v>
       </c>
       <c r="D13">
-        <f t="shared" ref="D13:O13" si="0">(D12+D11)/2</f>
-        <v>0.93273422500000003</v>
+        <f t="shared" ref="D13:O13" si="0">D12*D11</f>
+        <v>0.51638200357044783</v>
       </c>
       <c r="E13">
         <f t="shared" si="0"/>
-        <v>0.51525589166666674</v>
+        <v>0.15806110856797445</v>
       </c>
       <c r="F13">
         <f t="shared" si="0"/>
-        <v>0.92715114166666668</v>
+        <v>0.53202659139120434</v>
       </c>
       <c r="G13">
         <f t="shared" si="0"/>
-        <v>0.51525589166666674</v>
+        <v>0.15752669706599776</v>
       </c>
       <c r="H13">
         <f t="shared" si="0"/>
-        <v>0.88546422499999999</v>
+        <v>0.39425547716301523</v>
       </c>
       <c r="I13">
         <f t="shared" si="0"/>
-        <v>0.91338089166666669</v>
+        <v>0.50472537195234723</v>
       </c>
       <c r="J13">
         <f t="shared" si="0"/>
-        <v>0.96010309999999999</v>
+        <v>0.63019570573053396</v>
       </c>
       <c r="K13">
         <f t="shared" si="0"/>
-        <v>0.93654055833333327</v>
+        <v>0.60509523605184734</v>
       </c>
       <c r="L13">
         <f t="shared" si="0"/>
-        <v>0.99753001666666652</v>
+        <v>0.89504964340651649</v>
       </c>
       <c r="M13">
         <f t="shared" si="0"/>
-        <v>0.99437500000000001</v>
+        <v>0.8704383680555553</v>
       </c>
       <c r="N13">
         <f t="shared" si="0"/>
-        <v>0.91953972500000014</v>
+        <v>0.56528344645635553</v>
       </c>
       <c r="O13">
         <f t="shared" si="0"/>
-        <v>0.99107993333333355</v>
+        <v>0.92763157894736858</v>
       </c>
       <c r="P13">
         <v>0</v>
@@ -5221,43 +5221,43 @@
         <v>79</v>
       </c>
       <c r="C26">
-        <v>1</v>
+        <v>0.90489913544668577</v>
       </c>
       <c r="D26">
-        <v>1</v>
+        <v>0.46176470588235291</v>
       </c>
       <c r="E26">
         <v>1</v>
       </c>
       <c r="F26">
-        <v>1</v>
+        <v>0.48307692307692307</v>
       </c>
       <c r="G26">
-        <v>0.9</v>
+        <v>0.94864048338368567</v>
       </c>
       <c r="H26">
-        <v>0.3</v>
+        <v>2.3903775883069429E-2</v>
       </c>
       <c r="I26">
-        <v>0.2</v>
+        <v>6.7924201782469497E-3</v>
       </c>
       <c r="J26">
-        <v>0.6</v>
+        <v>0.60617760617760619</v>
       </c>
       <c r="K26">
-        <v>0.9</v>
+        <v>0.35885714285714282</v>
       </c>
       <c r="L26">
-        <v>1</v>
+        <v>0.18416422287390027</v>
       </c>
       <c r="M26">
-        <v>1</v>
+        <v>0.7302325581395348</v>
       </c>
       <c r="N26">
-        <v>1</v>
+        <v>0.59133709981167604</v>
       </c>
       <c r="O26">
-        <v>0.6</v>
+        <v>2.7689594356261022E-2</v>
       </c>
       <c r="P26">
         <v>0.9</v>
@@ -5395,55 +5395,55 @@
       </c>
       <c r="C27">
         <f>C26*C13</f>
-        <v>0.63453822500000001</v>
+        <v>0.1282508577410898</v>
       </c>
       <c r="D27">
         <f t="shared" ref="D27:O27" si="1">D26*D13</f>
-        <v>0.93273422500000003</v>
+        <v>0.23844698400164796</v>
       </c>
       <c r="E27">
         <f t="shared" si="1"/>
-        <v>0.51525589166666674</v>
+        <v>0.15806110856797445</v>
       </c>
       <c r="F27">
         <f t="shared" si="1"/>
-        <v>0.92715114166666668</v>
+        <v>0.25700976876436638</v>
       </c>
       <c r="G27">
         <f t="shared" si="1"/>
-        <v>0.46373030250000008</v>
+        <v>0.14943620205052352</v>
       </c>
       <c r="H27">
         <f t="shared" si="1"/>
-        <v>0.2656392675</v>
+        <v>9.4241945667773129E-3</v>
       </c>
       <c r="I27">
         <f t="shared" si="1"/>
-        <v>0.18267617833333336</v>
+        <v>3.4283068009223205E-3</v>
       </c>
       <c r="J27">
         <f t="shared" si="1"/>
-        <v>0.57606185999999993</v>
+        <v>0.3820105243231422</v>
       </c>
       <c r="K27">
         <f t="shared" si="1"/>
-        <v>0.84288650249999997</v>
+        <v>0.21714274756603433</v>
       </c>
       <c r="L27">
         <f t="shared" si="1"/>
-        <v>0.99753001666666652</v>
+        <v>0.16483612201152267</v>
       </c>
       <c r="M27">
         <f t="shared" si="1"/>
-        <v>0.99437500000000001</v>
+        <v>0.63562243620801007</v>
       </c>
       <c r="N27">
         <f t="shared" si="1"/>
-        <v>0.91953972500000014</v>
+        <v>0.33427307379905014</v>
       </c>
       <c r="O27">
         <f t="shared" si="1"/>
-        <v>0.59464796000000009</v>
+        <v>2.5685742133110558E-2</v>
       </c>
       <c r="P27">
         <f t="shared" ref="P27:AC27" si="2">P26*P28</f>
@@ -5614,43 +5614,56 @@
         <v>81</v>
       </c>
       <c r="C28">
-        <v>1</v>
+        <f>C13</f>
+        <v>0.14172945107056739</v>
       </c>
       <c r="D28">
-        <v>1</v>
+        <f t="shared" ref="D28:O28" si="12">D13</f>
+        <v>0.51638200357044783</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <f t="shared" si="12"/>
+        <v>0.15806110856797445</v>
       </c>
       <c r="F28">
-        <v>1</v>
+        <f t="shared" si="12"/>
+        <v>0.53202659139120434</v>
       </c>
       <c r="G28">
-        <v>1</v>
+        <f t="shared" si="12"/>
+        <v>0.15752669706599776</v>
       </c>
       <c r="H28">
-        <v>1</v>
+        <f t="shared" si="12"/>
+        <v>0.39425547716301523</v>
       </c>
       <c r="I28">
-        <v>1</v>
+        <f t="shared" si="12"/>
+        <v>0.50472537195234723</v>
       </c>
       <c r="J28">
-        <v>1</v>
+        <f t="shared" si="12"/>
+        <v>0.63019570573053396</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <f t="shared" si="12"/>
+        <v>0.60509523605184734</v>
       </c>
       <c r="L28">
-        <v>1</v>
+        <f t="shared" si="12"/>
+        <v>0.89504964340651649</v>
       </c>
       <c r="M28">
-        <v>1</v>
+        <f t="shared" si="12"/>
+        <v>0.8704383680555553</v>
       </c>
       <c r="N28">
-        <v>1</v>
+        <f t="shared" si="12"/>
+        <v>0.56528344645635553</v>
       </c>
       <c r="O28">
-        <v>1</v>
+        <f t="shared" si="12"/>
+        <v>0.92763157894736858</v>
       </c>
       <c r="P28">
         <v>0.46468986111111116</v>
@@ -5702,19 +5715,19 @@
         <v>0.97563025210084031</v>
       </c>
       <c r="AF28" s="3">
-        <f t="shared" ref="AF28:AI28" si="12">AF21</f>
+        <f t="shared" ref="AF28:AI28" si="13">AF21</f>
         <v>1</v>
       </c>
       <c r="AG28" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.83697478991596641</v>
       </c>
       <c r="AH28" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.754621848739496</v>
       </c>
       <c r="AI28" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.62016806722689077</v>
       </c>
       <c r="AJ28">
@@ -5722,27 +5735,27 @@
         <v>1</v>
       </c>
       <c r="AK28">
-        <f t="shared" ref="AK28:AP28" si="13">AK22</f>
+        <f t="shared" ref="AK28:AP28" si="14">AK22</f>
         <v>0.77439797211660322</v>
       </c>
       <c r="AL28">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.56147021546261078</v>
       </c>
       <c r="AM28">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.83269961977186313</v>
       </c>
       <c r="AN28">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.71482889733840294</v>
       </c>
       <c r="AO28">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.94169835234474009</v>
       </c>
       <c r="AP28">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.64892268694550059</v>
       </c>
       <c r="AQ28">
@@ -5750,27 +5763,27 @@
         <v>0.78797083839611193</v>
       </c>
       <c r="AR28">
-        <f t="shared" ref="AR28:AW28" si="14">AR23</f>
+        <f t="shared" ref="AR28:AW28" si="15">AR23</f>
         <v>0.81206966383151069</v>
       </c>
       <c r="AS28">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.92831105710814099</v>
       </c>
       <c r="AT28">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="AU28">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.98541919805589306</v>
       </c>
       <c r="AV28">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.87140542729850157</v>
       </c>
       <c r="AW28">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.89712434183880108</v>
       </c>
       <c r="AX28" s="3">

--- a/ai_sustainability/datas/Weight_matrix.xlsx
+++ b/ai_sustainability/datas/Weight_matrix.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hennecarta\Documents\Graph_decision_AI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE64586E-E81A-4B5F-949E-4150CF78200A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9C06511-6686-48C3-943D-DB31FA99B283}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{AC26B5E7-4148-4700-AAF1-8A62823EFFAF}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="136">
   <si>
     <t>id_edges</t>
   </si>
@@ -248,21 +248,9 @@
     <t>Classify between two choices</t>
   </si>
   <si>
-    <t>Minimize the maximum error that can be made.</t>
-  </si>
-  <si>
-    <t>Minimize the average error.</t>
-  </si>
-  <si>
     <t>Balanced</t>
   </si>
   <si>
-    <t>That a true thing is considered false.</t>
-  </si>
-  <si>
-    <t>That a false thing is considered true.</t>
-  </si>
-  <si>
     <t>Object detection</t>
   </si>
   <si>
@@ -359,9 +347,6 @@
     <t>YOLOX</t>
   </si>
   <si>
-    <t>LightGBM for image (only small dataset)</t>
-  </si>
-  <si>
     <t>Regnety080</t>
   </si>
   <si>
@@ -408,6 +393,57 @@
   </si>
   <si>
     <t>BP-RNN</t>
+  </si>
+  <si>
+    <t>metric</t>
+  </si>
+  <si>
+    <t>f1_score_handmade</t>
+  </si>
+  <si>
+    <t>max_error</t>
+  </si>
+  <si>
+    <t>mean_absolute_error</t>
+  </si>
+  <si>
+    <t>Minimize the average error</t>
+  </si>
+  <si>
+    <t>Minimize the maximum error that can be made</t>
+  </si>
+  <si>
+    <t>That a false thing is considered true</t>
+  </si>
+  <si>
+    <t>That a true thing is considered false</t>
+  </si>
+  <si>
+    <t>max_error,mean_absolute_error</t>
+  </si>
+  <si>
+    <t>Duration</t>
+  </si>
+  <si>
+    <t>Accuracy</t>
+  </si>
+  <si>
+    <t>Duration,Accuracy</t>
+  </si>
+  <si>
+    <t>false_negatives</t>
+  </si>
+  <si>
+    <t>false_positives</t>
+  </si>
+  <si>
+    <t>f1_score</t>
+  </si>
+  <si>
+    <t>evaluation_accuracy</t>
+  </si>
+  <si>
+    <t>LightGBM for image (only small dataset: less than 5000 samples)</t>
   </si>
 </sst>
 </file>
@@ -862,201 +898,205 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65B3A90E-CD1F-4942-85BC-B8033B44D3A6}">
-  <dimension ref="A1:BE41"/>
+  <dimension ref="A1:BF41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M21" sqref="M21"/>
+    <sheetView tabSelected="1" topLeftCell="AD1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AE1" sqref="AE1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="14.21875" style="1" customWidth="1"/>
     <col min="2" max="2" width="23.5546875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="17.77734375" customWidth="1"/>
     <col min="25" max="30" width="8.88671875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C1" s="6" t="s">
-        <v>1</v>
+      <c r="C1" t="s">
+        <v>119</v>
       </c>
       <c r="D1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="F1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="G1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="H1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="I1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="J1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="K1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="L1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="M1" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="N1" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="6" t="s">
+      <c r="O1" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="6" t="s">
+      <c r="P1" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="7" t="s">
+      <c r="Q1" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="7" t="s">
+      <c r="R1" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="R1" s="7" t="s">
+      <c r="S1" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="S1" s="7" t="s">
+      <c r="T1" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="T1" s="7" t="s">
+      <c r="U1" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="U1" s="7" t="s">
+      <c r="V1" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="W1" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="X1" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y1" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z1" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="AA1" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="AB1" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="V1" s="7" t="s">
+      <c r="AC1" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="W1" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="X1" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="Y1" s="11" t="s">
+      <c r="AD1" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="AE1" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="AF1" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="AG1" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="AH1" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="AI1" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="AJ1" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="AK1" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="Z1" s="11" t="s">
+      <c r="AL1" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="AA1" s="11" t="s">
+      <c r="AM1" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="AB1" s="11" t="s">
+      <c r="AN1" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="AC1" s="12" t="s">
+      <c r="AO1" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="AP1" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="AQ1" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="AR1" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="AS1" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="AT1" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="AU1" s="13" t="s">
         <v>108</v>
-      </c>
-      <c r="AD1" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="AE1" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="AF1" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="AG1" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="AH1" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="AI1" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="AJ1" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="AK1" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="AL1" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="AM1" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="AN1" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="AO1" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="AP1" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="AQ1" s="13" t="s">
-        <v>110</v>
-      </c>
-      <c r="AR1" s="13" t="s">
-        <v>111</v>
-      </c>
-      <c r="AS1" s="13" t="s">
-        <v>112</v>
-      </c>
-      <c r="AT1" s="13" t="s">
-        <v>113</v>
-      </c>
-      <c r="AU1" s="13" t="s">
-        <v>114</v>
       </c>
       <c r="AV1" s="13" t="s">
         <v>109</v>
       </c>
       <c r="AW1" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="AX1" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="AY1" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="AZ1" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="BA1" s="14" t="s">
+        <v>113</v>
+      </c>
+      <c r="BB1" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="BC1" s="14" t="s">
         <v>115</v>
       </c>
-      <c r="AX1" s="14" t="s">
+      <c r="BD1" s="15" t="s">
         <v>116</v>
       </c>
-      <c r="AY1" s="14" t="s">
+      <c r="BE1" s="15" t="s">
         <v>117</v>
       </c>
-      <c r="AZ1" s="14" t="s">
+      <c r="BF1" s="15" t="s">
         <v>118</v>
       </c>
-      <c r="BA1" s="14" t="s">
-        <v>119</v>
-      </c>
-      <c r="BB1" s="14" t="s">
-        <v>120</v>
-      </c>
-      <c r="BC1" s="15" t="s">
-        <v>121</v>
-      </c>
-      <c r="BD1" s="15" t="s">
-        <v>122</v>
-      </c>
-      <c r="BE1" s="15" t="s">
-        <v>123</v>
-      </c>
     </row>
-    <row r="2" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
+        <v>89</v>
+      </c>
+      <c r="C2" t="s">
+        <v>89</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -1121,7 +1161,7 @@
       <c r="X2">
         <v>1</v>
       </c>
-      <c r="Y2" s="3">
+      <c r="Y2">
         <v>1</v>
       </c>
       <c r="Z2" s="3">
@@ -1220,16 +1260,19 @@
       <c r="BE2" s="3">
         <v>1</v>
       </c>
+      <c r="BF2" s="3">
+        <v>1</v>
+      </c>
     </row>
-    <row r="3" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C3">
-        <v>1</v>
+      <c r="C3" t="s">
+        <v>89</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -1294,7 +1337,7 @@
       <c r="X3">
         <v>1</v>
       </c>
-      <c r="Y3" s="3">
+      <c r="Y3">
         <v>1</v>
       </c>
       <c r="Z3" s="3">
@@ -1393,21 +1436,24 @@
       <c r="BE3" s="3">
         <v>1</v>
       </c>
+      <c r="BF3" s="3">
+        <v>1</v>
+      </c>
     </row>
-    <row r="4" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C4" s="4">
-        <v>1</v>
-      </c>
-      <c r="D4" s="3">
-        <v>1</v>
-      </c>
-      <c r="E4" s="4">
+      <c r="C4" t="s">
+        <v>89</v>
+      </c>
+      <c r="D4" s="4">
+        <v>1</v>
+      </c>
+      <c r="E4" s="3">
         <v>1</v>
       </c>
       <c r="F4" s="4">
@@ -1416,11 +1462,11 @@
       <c r="G4" s="4">
         <v>1</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -1441,10 +1487,10 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R4">
         <v>0</v>
@@ -1467,7 +1513,7 @@
       <c r="X4">
         <v>0</v>
       </c>
-      <c r="Y4" s="3">
+      <c r="Y4">
         <v>0</v>
       </c>
       <c r="Z4" s="3">
@@ -1531,10 +1577,10 @@
         <v>0</v>
       </c>
       <c r="AT4" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU4" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV4" s="3">
         <v>0</v>
@@ -1566,16 +1612,19 @@
       <c r="BE4" s="3">
         <v>0</v>
       </c>
+      <c r="BF4" s="3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="5" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C5">
-        <v>1</v>
+      <c r="C5" t="s">
+        <v>89</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -1583,10 +1632,10 @@
       <c r="E5">
         <v>1</v>
       </c>
-      <c r="F5" s="5">
-        <v>1</v>
-      </c>
-      <c r="G5">
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5" s="5">
         <v>1</v>
       </c>
       <c r="H5">
@@ -1640,8 +1689,8 @@
       <c r="X5">
         <v>1</v>
       </c>
-      <c r="Y5" s="3">
-        <v>0</v>
+      <c r="Y5">
+        <v>1</v>
       </c>
       <c r="Z5" s="3">
         <v>0</v>
@@ -1739,16 +1788,19 @@
       <c r="BE5" s="3">
         <v>0</v>
       </c>
+      <c r="BF5" s="3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="6" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C6">
-        <v>0</v>
+      <c r="C6" t="s">
+        <v>89</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -1813,7 +1865,7 @@
       <c r="X6">
         <v>0</v>
       </c>
-      <c r="Y6" s="3">
+      <c r="Y6">
         <v>0</v>
       </c>
       <c r="Z6" s="3">
@@ -1868,7 +1920,7 @@
         <v>0</v>
       </c>
       <c r="AQ6" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR6" s="3">
         <v>1</v>
@@ -1912,16 +1964,19 @@
       <c r="BE6" s="3">
         <v>1</v>
       </c>
+      <c r="BF6" s="3">
+        <v>1</v>
+      </c>
     </row>
-    <row r="7" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C7">
-        <v>0</v>
+      <c r="C7" t="s">
+        <v>89</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -1986,8 +2041,8 @@
       <c r="X7">
         <v>0</v>
       </c>
-      <c r="Y7" s="3">
-        <v>1</v>
+      <c r="Y7">
+        <v>0</v>
       </c>
       <c r="Z7" s="3">
         <v>1</v>
@@ -2041,7 +2096,7 @@
         <v>1</v>
       </c>
       <c r="AQ7" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR7" s="3">
         <v>0</v>
@@ -2085,16 +2140,19 @@
       <c r="BE7" s="3">
         <v>0</v>
       </c>
+      <c r="BF7" s="3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="8" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="C8">
-        <v>1</v>
+      <c r="C8" t="s">
+        <v>89</v>
       </c>
       <c r="D8">
         <v>1</v>
@@ -2133,7 +2191,7 @@
         <v>1</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q8">
         <v>0</v>
@@ -2159,7 +2217,7 @@
       <c r="X8">
         <v>0</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Y8">
         <v>0</v>
       </c>
       <c r="Z8" s="3">
@@ -2258,16 +2316,19 @@
       <c r="BE8" s="3">
         <v>0</v>
       </c>
+      <c r="BF8" s="3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="9" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="C9">
-        <v>0</v>
+      <c r="C9" t="s">
+        <v>120</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -2306,34 +2367,34 @@
         <v>0</v>
       </c>
       <c r="P9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q9">
-        <v>1</v>
+        <v>0.46468986111111099</v>
       </c>
       <c r="R9">
-        <v>1</v>
+        <v>0.51031225694444438</v>
       </c>
       <c r="S9">
-        <v>1</v>
+        <v>0.52973999999999988</v>
       </c>
       <c r="T9">
-        <v>1</v>
+        <v>0.45403111111111122</v>
       </c>
       <c r="U9">
-        <v>1</v>
+        <v>0.52557581249999985</v>
       </c>
       <c r="V9">
-        <v>1</v>
+        <v>0.54629152777777779</v>
       </c>
       <c r="W9">
-        <v>1</v>
+        <v>0.54629152777777779</v>
       </c>
       <c r="X9">
-        <v>1</v>
-      </c>
-      <c r="Y9" s="3">
-        <v>0</v>
+        <v>0.36465800000000009</v>
+      </c>
+      <c r="Y9">
+        <v>0.54168452777777776</v>
       </c>
       <c r="Z9" s="3">
         <v>0</v>
@@ -2431,16 +2492,19 @@
       <c r="BE9" s="3">
         <v>0</v>
       </c>
+      <c r="BF9" s="3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="10" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C10">
-        <v>0</v>
+      <c r="C10" t="s">
+        <v>89</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -2479,7 +2543,7 @@
         <v>0</v>
       </c>
       <c r="P10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q10">
         <v>1</v>
@@ -2505,8 +2569,8 @@
       <c r="X10">
         <v>1</v>
       </c>
-      <c r="Y10" s="3">
-        <v>0</v>
+      <c r="Y10">
+        <v>1</v>
       </c>
       <c r="Z10" s="3">
         <v>0</v>
@@ -2604,55 +2668,58 @@
       <c r="BE10" s="3">
         <v>0</v>
       </c>
+      <c r="BF10" s="3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="11" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="C11">
+        <v>124</v>
+      </c>
+      <c r="C11" t="s">
+        <v>121</v>
+      </c>
+      <c r="D11">
         <v>0.38397624332593427</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>0.80570241691842903</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>0.72379283048739118</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>0.86155606407322649</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>0.72134565535895412</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>0.79223913850724093</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>0.93547208418591055</v>
       </c>
-      <c r="J11">
+      <c r="K11">
         <v>0.88197602315006185</v>
       </c>
-      <c r="K11">
+      <c r="L11">
         <v>0.93410683012259177</v>
       </c>
-      <c r="L11">
+      <c r="M11">
         <v>0.89504964340651649</v>
       </c>
-      <c r="M11">
+      <c r="N11">
         <v>0.92599826388888862</v>
       </c>
-      <c r="N11">
+      <c r="O11">
         <v>0.97153916211293256</v>
       </c>
-      <c r="O11">
-        <v>1</v>
-      </c>
       <c r="P11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q11">
         <v>0</v>
@@ -2678,7 +2745,7 @@
       <c r="X11">
         <v>0</v>
       </c>
-      <c r="Y11" s="3">
+      <c r="Y11">
         <v>0</v>
       </c>
       <c r="Z11" s="3">
@@ -2777,56 +2844,59 @@
       <c r="BE11" s="3">
         <v>0</v>
       </c>
+      <c r="BF11" s="3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="12" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>37</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="C12">
+        <v>123</v>
+      </c>
+      <c r="C12" t="s">
+        <v>122</v>
+      </c>
+      <c r="D12">
         <v>0.36910994764397914</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <v>0.64090909090909109</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>0.21837893649974191</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>0.61751824817518275</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>0.21837893649974191</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>0.4976470588235295</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>0.53954081632653073</v>
       </c>
-      <c r="J12">
+      <c r="K12">
         <v>0.71452702702702697</v>
       </c>
-      <c r="K12">
+      <c r="L12">
         <v>0.64777947932618685</v>
       </c>
-      <c r="L12">
-        <v>1</v>
-      </c>
       <c r="M12">
+        <v>1</v>
+      </c>
+      <c r="N12">
         <v>0.94</v>
       </c>
-      <c r="N12">
+      <c r="O12">
         <v>0.58184319119669881</v>
       </c>
-      <c r="O12">
+      <c r="P12">
         <v>0.92763157894736858</v>
       </c>
-      <c r="P12">
-        <v>0</v>
-      </c>
       <c r="Q12">
         <v>0</v>
       </c>
@@ -2851,7 +2921,7 @@
       <c r="X12">
         <v>0</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Y12">
         <v>0</v>
       </c>
       <c r="Z12" s="3">
@@ -2950,69 +3020,72 @@
       <c r="BE12" s="3">
         <v>0</v>
       </c>
+      <c r="BF12" s="3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="13" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>38</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="C13">
-        <f>C12*C11</f>
+        <v>70</v>
+      </c>
+      <c r="C13" t="s">
+        <v>127</v>
+      </c>
+      <c r="D13">
+        <f>D12*D11</f>
         <v>0.14172945107056739</v>
       </c>
-      <c r="D13">
-        <f t="shared" ref="D13:O13" si="0">D12*D11</f>
+      <c r="E13">
+        <f>E12*E11</f>
         <v>0.51638200357044783</v>
       </c>
-      <c r="E13">
-        <f t="shared" si="0"/>
+      <c r="F13">
+        <f t="shared" ref="E13:P13" si="0">F12*F11</f>
         <v>0.15806110856797445</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <f t="shared" si="0"/>
         <v>0.53202659139120434</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <f t="shared" si="0"/>
         <v>0.15752669706599776</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <f t="shared" si="0"/>
         <v>0.39425547716301523</v>
       </c>
-      <c r="I13">
+      <c r="J13">
         <f t="shared" si="0"/>
         <v>0.50472537195234723</v>
       </c>
-      <c r="J13">
+      <c r="K13">
         <f t="shared" si="0"/>
         <v>0.63019570573053396</v>
       </c>
-      <c r="K13">
+      <c r="L13">
         <f t="shared" si="0"/>
         <v>0.60509523605184734</v>
       </c>
-      <c r="L13">
+      <c r="M13">
         <f t="shared" si="0"/>
         <v>0.89504964340651649</v>
       </c>
-      <c r="M13">
+      <c r="N13">
         <f t="shared" si="0"/>
         <v>0.8704383680555553</v>
       </c>
-      <c r="N13">
+      <c r="O13">
         <f t="shared" si="0"/>
         <v>0.56528344645635553</v>
       </c>
-      <c r="O13">
+      <c r="P13">
         <f t="shared" si="0"/>
         <v>0.92763157894736858</v>
       </c>
-      <c r="P13">
-        <v>0</v>
-      </c>
       <c r="Q13">
         <v>0</v>
       </c>
@@ -3037,7 +3110,7 @@
       <c r="X13">
         <v>0</v>
       </c>
-      <c r="Y13" s="3">
+      <c r="Y13">
         <v>0</v>
       </c>
       <c r="Z13" s="3">
@@ -3136,16 +3209,19 @@
       <c r="BE13" s="3">
         <v>0</v>
       </c>
+      <c r="BF13" s="3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="14" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>40</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C14">
-        <v>1</v>
+      <c r="C14" t="s">
+        <v>89</v>
       </c>
       <c r="D14">
         <v>1</v>
@@ -3210,7 +3286,7 @@
       <c r="X14">
         <v>1</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Y14">
         <v>1</v>
       </c>
       <c r="Z14" s="3">
@@ -3244,7 +3320,7 @@
         <v>1</v>
       </c>
       <c r="AJ14" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK14" s="3">
         <v>0</v>
@@ -3309,16 +3385,19 @@
       <c r="BE14" s="3">
         <v>0</v>
       </c>
+      <c r="BF14" s="3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="15" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>39</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C15">
-        <v>1</v>
+      <c r="C15" t="s">
+        <v>89</v>
       </c>
       <c r="D15">
         <v>1</v>
@@ -3383,7 +3462,7 @@
       <c r="X15">
         <v>1</v>
       </c>
-      <c r="Y15" s="3">
+      <c r="Y15">
         <v>1</v>
       </c>
       <c r="Z15" s="3">
@@ -3417,7 +3496,7 @@
         <v>1</v>
       </c>
       <c r="AJ15" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK15" s="3">
         <v>0</v>
@@ -3482,16 +3561,19 @@
       <c r="BE15" s="3">
         <v>0</v>
       </c>
+      <c r="BF15" s="3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="16" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>66</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="C16">
-        <v>1</v>
+        <v>89</v>
+      </c>
+      <c r="C16" t="s">
+        <v>89</v>
       </c>
       <c r="D16">
         <v>1</v>
@@ -3556,7 +3638,7 @@
       <c r="X16">
         <v>1</v>
       </c>
-      <c r="Y16" s="3">
+      <c r="Y16">
         <v>1</v>
       </c>
       <c r="Z16" s="3">
@@ -3590,7 +3672,7 @@
         <v>1</v>
       </c>
       <c r="AJ16" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK16" s="3">
         <v>0</v>
@@ -3655,16 +3737,19 @@
       <c r="BE16" s="3">
         <v>0</v>
       </c>
+      <c r="BF16" s="3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="17" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>42</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C17">
-        <v>0</v>
+        <v>126</v>
+      </c>
+      <c r="C17" t="s">
+        <v>131</v>
       </c>
       <c r="D17">
         <v>0</v>
@@ -3703,53 +3788,53 @@
         <v>0</v>
       </c>
       <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
         <v>0.64268377253814146</v>
       </c>
-      <c r="Q17">
+      <c r="R17">
         <v>0.80868237347294936</v>
       </c>
-      <c r="R17">
+      <c r="S17">
         <v>0.74994942342706861</v>
       </c>
-      <c r="S17">
+      <c r="T17">
         <v>0.60561999673255995</v>
       </c>
-      <c r="T17">
+      <c r="U17">
         <v>0.79737577973757801</v>
       </c>
-      <c r="U17">
+      <c r="V17">
         <v>0.99383378016085788</v>
       </c>
-      <c r="V17">
-        <v>1</v>
-      </c>
       <c r="W17">
+        <v>1</v>
+      </c>
+      <c r="X17">
         <v>0.74919159256265155</v>
       </c>
-      <c r="X17">
+      <c r="Y17">
         <v>0.87656656419957435</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>0.27860696517412936</v>
       </c>
-      <c r="Z17" s="3">
-        <v>1</v>
-      </c>
       <c r="AA17" s="3">
+        <v>1</v>
+      </c>
+      <c r="AB17" s="3">
         <v>0.37583892617449666</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>0.40143369175627241</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>0.33234421364985162</v>
       </c>
-      <c r="AD17" s="3">
+      <c r="AE17" s="3">
         <v>0.56565656565656564</v>
       </c>
-      <c r="AE17" s="3">
-        <v>0</v>
-      </c>
       <c r="AF17" s="3">
         <v>0</v>
       </c>
@@ -3828,16 +3913,19 @@
       <c r="BE17" s="3">
         <v>0</v>
       </c>
+      <c r="BF17" s="3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="18" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>43</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="C18">
-        <v>0</v>
+        <v>125</v>
+      </c>
+      <c r="C18" t="s">
+        <v>132</v>
       </c>
       <c r="D18">
         <v>0</v>
@@ -3876,53 +3964,53 @@
         <v>0</v>
       </c>
       <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
         <v>0.36322092656791682</v>
       </c>
-      <c r="Q18">
+      <c r="R18">
         <v>0.60546361964801676</v>
       </c>
-      <c r="R18">
+      <c r="S18">
         <v>0.4568880079286422</v>
       </c>
-      <c r="S18">
+      <c r="T18">
         <v>0.19287088946531672</v>
       </c>
-      <c r="T18">
+      <c r="U18">
         <v>0.59391909301726364</v>
       </c>
-      <c r="U18">
-        <v>1</v>
-      </c>
       <c r="V18">
+        <v>1</v>
+      </c>
+      <c r="W18">
         <v>0.98884598884598884</v>
       </c>
-      <c r="W18">
+      <c r="X18">
         <v>0.53604651162790695</v>
       </c>
-      <c r="X18">
+      <c r="Y18">
         <v>0.86491557223264537</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>0.54216867469879515</v>
       </c>
-      <c r="Z18" s="3">
-        <v>1</v>
-      </c>
       <c r="AA18" s="3">
+        <v>1</v>
+      </c>
+      <c r="AB18" s="3">
         <v>0.29315960912052119</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>0.30716723549488056</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>0.43902439024390244</v>
       </c>
-      <c r="AD18" s="3">
+      <c r="AE18" s="3">
         <v>0.36144578313253012</v>
       </c>
-      <c r="AE18" s="3">
-        <v>0</v>
-      </c>
       <c r="AF18" s="3">
         <v>0</v>
       </c>
@@ -4001,16 +4089,19 @@
       <c r="BE18" s="3">
         <v>0</v>
       </c>
+      <c r="BF18" s="3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="19" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>44</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="C19">
-        <v>0</v>
+        <v>70</v>
+      </c>
+      <c r="C19" t="s">
+        <v>133</v>
       </c>
       <c r="D19">
         <v>0</v>
@@ -4049,53 +4140,53 @@
         <v>0</v>
       </c>
       <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
         <v>0.46468986111111099</v>
       </c>
-      <c r="Q19">
+      <c r="R19">
         <v>0.51031225694444438</v>
       </c>
-      <c r="R19">
+      <c r="S19">
         <v>0.52973999999999988</v>
       </c>
-      <c r="S19">
+      <c r="T19">
         <v>0.45403111111111122</v>
       </c>
-      <c r="T19">
+      <c r="U19">
         <v>0.52557581249999985</v>
-      </c>
-      <c r="U19">
-        <v>0.54629152777777779</v>
       </c>
       <c r="V19">
         <v>0.54629152777777779</v>
       </c>
       <c r="W19">
+        <v>0.54629152777777779</v>
+      </c>
+      <c r="X19">
         <v>0.36465800000000009</v>
       </c>
-      <c r="X19">
+      <c r="Y19">
         <v>0.54168452777777776</v>
       </c>
-      <c r="Y19" s="3">
+      <c r="Z19" s="3">
         <v>0.471655328798186</v>
       </c>
-      <c r="Z19" s="3">
-        <v>1</v>
-      </c>
       <c r="AA19" s="3">
+        <v>1</v>
+      </c>
+      <c r="AB19" s="3">
         <v>0.53911564625850339</v>
       </c>
-      <c r="AB19" s="3">
+      <c r="AC19" s="3">
         <v>0.58106575963718821</v>
       </c>
-      <c r="AC19" s="3">
+      <c r="AD19" s="3">
         <v>0.55328798185941042</v>
       </c>
-      <c r="AD19" s="3">
+      <c r="AE19" s="3">
         <v>0.83730158730158721</v>
       </c>
-      <c r="AE19" s="3">
-        <v>0</v>
-      </c>
       <c r="AF19" s="3">
         <v>0</v>
       </c>
@@ -4174,16 +4265,19 @@
       <c r="BE19" s="3">
         <v>0</v>
       </c>
+      <c r="BF19" s="3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="20" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>45</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C20">
-        <v>0</v>
+      <c r="C20" t="s">
+        <v>89</v>
       </c>
       <c r="D20">
         <v>0</v>
@@ -4248,8 +4342,8 @@
       <c r="X20">
         <v>0</v>
       </c>
-      <c r="Y20" s="3">
-        <v>1</v>
+      <c r="Y20">
+        <v>0</v>
       </c>
       <c r="Z20" s="3">
         <v>1</v>
@@ -4267,7 +4361,7 @@
         <v>1</v>
       </c>
       <c r="AE20" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF20" s="3">
         <v>0</v>
@@ -4347,16 +4441,19 @@
       <c r="BE20" s="3">
         <v>0</v>
       </c>
+      <c r="BF20" s="3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="21" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>46</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="C21">
-        <v>0</v>
+      <c r="C21" t="s">
+        <v>134</v>
       </c>
       <c r="D21">
         <v>0</v>
@@ -4421,7 +4518,7 @@
       <c r="X21">
         <v>0</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Y21">
         <v>0</v>
       </c>
       <c r="Z21" s="3">
@@ -4440,23 +4537,23 @@
         <v>0</v>
       </c>
       <c r="AE21" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF21" s="3">
         <v>0.97563025210084031</v>
       </c>
-      <c r="AF21" s="3">
-        <v>1</v>
-      </c>
       <c r="AG21" s="3">
+        <v>1</v>
+      </c>
+      <c r="AH21" s="3">
         <v>0.83697478991596641</v>
       </c>
-      <c r="AH21" s="3">
+      <c r="AI21" s="3">
         <v>0.754621848739496</v>
       </c>
-      <c r="AI21" s="3">
+      <c r="AJ21" s="3">
         <v>0.62016806722689077</v>
       </c>
-      <c r="AJ21" s="3">
-        <v>0</v>
-      </c>
       <c r="AK21" s="3">
         <v>0</v>
       </c>
@@ -4520,16 +4617,19 @@
       <c r="BE21" s="3">
         <v>0</v>
       </c>
+      <c r="BF21" s="3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="22" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>41</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="C22">
-        <v>0</v>
+        <v>71</v>
+      </c>
+      <c r="C22" t="s">
+        <v>89</v>
       </c>
       <c r="D22">
         <v>0</v>
@@ -4594,7 +4694,7 @@
       <c r="X22">
         <v>0</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Y22">
         <v>0</v>
       </c>
       <c r="Z22" s="3">
@@ -4628,29 +4728,29 @@
         <v>0</v>
       </c>
       <c r="AJ22" s="3">
-        <v>1</v>
-      </c>
-      <c r="AK22">
+        <v>0</v>
+      </c>
+      <c r="AK22" s="3">
+        <v>1</v>
+      </c>
+      <c r="AL22">
         <v>0.77439797211660322</v>
       </c>
-      <c r="AL22">
+      <c r="AM22">
         <v>0.56147021546261078</v>
       </c>
-      <c r="AM22">
+      <c r="AN22">
         <v>0.83269961977186313</v>
       </c>
-      <c r="AN22">
+      <c r="AO22">
         <v>0.71482889733840294</v>
       </c>
-      <c r="AO22">
+      <c r="AP22">
         <v>0.94169835234474009</v>
       </c>
-      <c r="AP22">
+      <c r="AQ22">
         <v>0.64892268694550059</v>
       </c>
-      <c r="AQ22" s="3">
-        <v>0</v>
-      </c>
       <c r="AR22" s="3">
         <v>0</v>
       </c>
@@ -4693,16 +4793,19 @@
       <c r="BE22" s="3">
         <v>0</v>
       </c>
+      <c r="BF22" s="3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="23" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>47</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="C23">
-        <v>0</v>
+        <v>72</v>
+      </c>
+      <c r="C23" t="s">
+        <v>120</v>
       </c>
       <c r="D23">
         <v>0</v>
@@ -4767,7 +4870,7 @@
       <c r="X23">
         <v>0</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Y23">
         <v>0</v>
       </c>
       <c r="Z23" s="3">
@@ -4821,30 +4924,30 @@
       <c r="AP23" s="3">
         <v>0</v>
       </c>
-      <c r="AQ23">
+      <c r="AQ23" s="3">
+        <v>0</v>
+      </c>
+      <c r="AR23">
         <v>0.78797083839611193</v>
       </c>
-      <c r="AR23">
+      <c r="AS23">
         <v>0.81206966383151069</v>
       </c>
-      <c r="AS23">
+      <c r="AT23">
         <v>0.92831105710814099</v>
       </c>
-      <c r="AT23" s="3">
-        <v>1</v>
-      </c>
-      <c r="AU23">
+      <c r="AU23" s="3">
+        <v>1</v>
+      </c>
+      <c r="AV23">
         <v>0.98541919805589306</v>
       </c>
-      <c r="AV23">
+      <c r="AW23">
         <v>0.87140542729850157</v>
       </c>
-      <c r="AW23">
+      <c r="AX23">
         <v>0.89712434183880108</v>
       </c>
-      <c r="AX23" s="3">
-        <v>0</v>
-      </c>
       <c r="AY23" s="3">
         <v>0</v>
       </c>
@@ -4866,16 +4969,19 @@
       <c r="BE23" s="3">
         <v>0</v>
       </c>
+      <c r="BF23" s="3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="24" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>48</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="C24">
-        <v>0</v>
+        <v>73</v>
+      </c>
+      <c r="C24" t="s">
+        <v>89</v>
       </c>
       <c r="D24">
         <v>0</v>
@@ -4940,7 +5046,7 @@
       <c r="X24">
         <v>0</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Y24">
         <v>0</v>
       </c>
       <c r="Z24" s="3">
@@ -5016,39 +5122,42 @@
         <v>0</v>
       </c>
       <c r="AX24" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY24" s="3">
+        <v>1</v>
+      </c>
+      <c r="AZ24" s="3">
         <v>0.8</v>
       </c>
-      <c r="AZ24" s="3">
+      <c r="BA24" s="3">
         <v>0.6</v>
       </c>
-      <c r="BA24" s="3">
+      <c r="BB24" s="3">
         <v>0.4</v>
       </c>
-      <c r="BB24" s="3">
+      <c r="BC24" s="3">
         <v>0.2</v>
       </c>
-      <c r="BC24" s="3">
-        <v>0</v>
-      </c>
       <c r="BD24" s="3">
         <v>0</v>
       </c>
       <c r="BE24" s="3">
         <v>0</v>
       </c>
+      <c r="BF24" s="3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="25" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>49</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="C25">
-        <v>0</v>
+        <v>74</v>
+      </c>
+      <c r="C25" t="s">
+        <v>89</v>
       </c>
       <c r="D25">
         <v>0</v>
@@ -5113,7 +5222,7 @@
       <c r="X25">
         <v>0</v>
       </c>
-      <c r="Y25" s="3">
+      <c r="Y25">
         <v>0</v>
       </c>
       <c r="Z25" s="3">
@@ -5204,79 +5313,82 @@
         <v>0</v>
       </c>
       <c r="BC25" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD25" s="3">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="BE25" s="3">
-        <v>0.2</v>
+        <v>0.7</v>
+      </c>
+      <c r="BF25" s="3">
+        <v>0.5</v>
       </c>
     </row>
-    <row r="26" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>50</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="C26">
+        <v>75</v>
+      </c>
+      <c r="C26" t="s">
+        <v>128</v>
+      </c>
+      <c r="D26">
         <v>0.90489913544668577</v>
       </c>
-      <c r="D26">
+      <c r="E26">
         <v>0.46176470588235291</v>
       </c>
-      <c r="E26">
-        <v>1</v>
-      </c>
       <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
         <v>0.48307692307692307</v>
       </c>
-      <c r="G26">
+      <c r="H26">
         <v>0.94864048338368567</v>
       </c>
-      <c r="H26">
+      <c r="I26">
         <v>2.3903775883069429E-2</v>
       </c>
-      <c r="I26">
+      <c r="J26">
         <v>6.7924201782469497E-3</v>
       </c>
-      <c r="J26">
+      <c r="K26">
         <v>0.60617760617760619</v>
       </c>
-      <c r="K26">
+      <c r="L26">
         <v>0.35885714285714282</v>
       </c>
-      <c r="L26">
+      <c r="M26">
         <v>0.18416422287390027</v>
       </c>
-      <c r="M26">
+      <c r="N26">
         <v>0.7302325581395348</v>
       </c>
-      <c r="N26">
+      <c r="O26">
         <v>0.59133709981167604</v>
       </c>
-      <c r="O26">
+      <c r="P26">
         <v>2.7689594356261022E-2</v>
       </c>
-      <c r="P26">
+      <c r="Q26">
         <v>0.9</v>
       </c>
-      <c r="Q26">
+      <c r="R26">
         <v>0.2</v>
       </c>
-      <c r="R26">
-        <v>1</v>
-      </c>
       <c r="S26">
+        <v>1</v>
+      </c>
+      <c r="T26">
         <v>0.4</v>
       </c>
-      <c r="T26">
+      <c r="U26">
         <v>0.3</v>
       </c>
-      <c r="U26">
-        <v>1</v>
-      </c>
       <c r="V26">
         <v>1</v>
       </c>
@@ -5284,86 +5396,86 @@
         <v>1</v>
       </c>
       <c r="X26">
+        <v>1</v>
+      </c>
+      <c r="Y26">
         <v>0.6</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>0.93243243243243235</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>0.34673366834170855</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>0.9078947368421052</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>0.50364963503649629</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>0.45695364238410596</v>
       </c>
-      <c r="AD26" s="3">
-        <v>1</v>
-      </c>
       <c r="AE26" s="3">
+        <v>1</v>
+      </c>
+      <c r="AF26" s="3">
         <v>0.68594306049822074</v>
       </c>
-      <c r="AF26" s="3">
+      <c r="AG26" s="3">
         <v>0.22456310679611652</v>
       </c>
-      <c r="AG26" s="3">
-        <v>1</v>
-      </c>
       <c r="AH26" s="3">
+        <v>1</v>
+      </c>
+      <c r="AI26" s="3">
         <v>0.41765980498374872</v>
       </c>
-      <c r="AI26" s="3">
+      <c r="AJ26" s="3">
         <v>0.42354880058597327</v>
       </c>
-      <c r="AJ26" s="3">
+      <c r="AK26" s="3">
         <v>0.05</v>
       </c>
-      <c r="AK26">
+      <c r="AL26">
         <v>0.6428571428571429</v>
       </c>
-      <c r="AL26">
+      <c r="AM26">
         <v>0.68</v>
       </c>
-      <c r="AM26">
+      <c r="AN26">
         <v>0.44285714285714284</v>
       </c>
-      <c r="AN26">
-        <v>1</v>
-      </c>
       <c r="AO26">
+        <v>1</v>
+      </c>
+      <c r="AP26">
         <v>0.21428571428571427</v>
       </c>
-      <c r="AP26">
+      <c r="AQ26">
         <v>0.41285714285714281</v>
       </c>
-      <c r="AQ26">
+      <c r="AR26">
         <v>0.88189541701567542</v>
       </c>
-      <c r="AR26">
+      <c r="AS26">
         <v>0.98397863818424569</v>
       </c>
-      <c r="AS26">
+      <c r="AT26">
         <v>0.32770120053357049</v>
       </c>
-      <c r="AT26" s="3">
-        <v>1</v>
-      </c>
-      <c r="AU26">
+      <c r="AU26" s="3">
+        <v>1</v>
+      </c>
+      <c r="AV26">
         <v>5.0125824661633678E-2</v>
       </c>
-      <c r="AV26">
+      <c r="AW26">
         <v>0.63644214162348878</v>
       </c>
-      <c r="AW26">
+      <c r="AX26">
         <v>0.17353425947727807</v>
       </c>
-      <c r="AX26" s="3">
-        <v>1</v>
-      </c>
       <c r="AY26" s="3">
         <v>1</v>
       </c>
@@ -5385,89 +5497,91 @@
       <c r="BE26" s="3">
         <v>1</v>
       </c>
+      <c r="BF26" s="3">
+        <v>1</v>
+      </c>
     </row>
-    <row r="27" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>51</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="C27">
-        <f>C26*C13</f>
+        <v>76</v>
+      </c>
+      <c r="C27" t="s">
+        <v>130</v>
+      </c>
+      <c r="D27">
+        <f>D26*D13</f>
         <v>0.1282508577410898</v>
       </c>
-      <c r="D27">
-        <f t="shared" ref="D27:O27" si="1">D26*D13</f>
+      <c r="E27">
+        <f t="shared" ref="E27:P27" si="1">E26*E13</f>
         <v>0.23844698400164796</v>
       </c>
-      <c r="E27">
+      <c r="F27">
         <f t="shared" si="1"/>
         <v>0.15806110856797445</v>
       </c>
-      <c r="F27">
+      <c r="G27">
         <f t="shared" si="1"/>
         <v>0.25700976876436638</v>
       </c>
-      <c r="G27">
+      <c r="H27">
         <f t="shared" si="1"/>
         <v>0.14943620205052352</v>
       </c>
-      <c r="H27">
+      <c r="I27">
         <f t="shared" si="1"/>
         <v>9.4241945667773129E-3</v>
       </c>
-      <c r="I27">
+      <c r="J27">
         <f t="shared" si="1"/>
         <v>3.4283068009223205E-3</v>
       </c>
-      <c r="J27">
+      <c r="K27">
         <f t="shared" si="1"/>
         <v>0.3820105243231422</v>
       </c>
-      <c r="K27">
+      <c r="L27">
         <f t="shared" si="1"/>
         <v>0.21714274756603433</v>
       </c>
-      <c r="L27">
+      <c r="M27">
         <f t="shared" si="1"/>
         <v>0.16483612201152267</v>
       </c>
-      <c r="M27">
+      <c r="N27">
         <f t="shared" si="1"/>
         <v>0.63562243620801007</v>
       </c>
-      <c r="N27">
+      <c r="O27">
         <f t="shared" si="1"/>
         <v>0.33427307379905014</v>
       </c>
-      <c r="O27">
+      <c r="P27">
         <f t="shared" si="1"/>
         <v>2.5685742133110558E-2</v>
       </c>
-      <c r="P27">
-        <f t="shared" ref="P27:AC27" si="2">P26*P28</f>
-        <v>0.41822087500000005</v>
-      </c>
       <c r="Q27">
+        <f t="shared" ref="Q27:AD27" si="2">Q26*Q28</f>
+        <v>0.41822087499999988</v>
+      </c>
+      <c r="R27">
         <f t="shared" si="2"/>
         <v>0.10206245138888888</v>
       </c>
-      <c r="R27">
+      <c r="S27">
         <f t="shared" si="2"/>
         <v>0.52973999999999988</v>
       </c>
-      <c r="S27">
+      <c r="T27">
         <f t="shared" si="2"/>
         <v>0.18161244444444449</v>
       </c>
-      <c r="T27">
+      <c r="U27">
         <f t="shared" si="2"/>
         <v>0.15767274374999996</v>
-      </c>
-      <c r="U27">
-        <f t="shared" si="2"/>
-        <v>0.54629152777777779</v>
       </c>
       <c r="V27">
         <f t="shared" si="2"/>
@@ -5475,115 +5589,116 @@
       </c>
       <c r="W27">
         <f t="shared" si="2"/>
-        <v>0.36465800000000009</v>
+        <v>0.54629152777777779</v>
       </c>
       <c r="X27">
         <f t="shared" si="2"/>
-        <v>0.32501071666666664</v>
+        <v>0.36465800000000009</v>
       </c>
       <c r="Y27">
         <f t="shared" si="2"/>
-        <v>0.43978672550101122</v>
+        <v>0.32501071666666664</v>
       </c>
       <c r="Z27">
         <f t="shared" si="2"/>
-        <v>0.34673366834170855</v>
+        <v>0.43978672550101122</v>
       </c>
       <c r="AA27">
         <f t="shared" si="2"/>
-        <v>0.48946025778732544</v>
+        <v>0.34673366834170855</v>
       </c>
       <c r="AB27">
         <f t="shared" si="2"/>
-        <v>0.29265355777347429</v>
+        <v>0.48946025778732544</v>
       </c>
       <c r="AC27">
         <f t="shared" si="2"/>
+        <v>0.29265355777347429</v>
+      </c>
+      <c r="AD27">
+        <f t="shared" si="2"/>
         <v>0.25282695859800874</v>
       </c>
-      <c r="AD27">
-        <f t="shared" ref="AD27:AI27" si="3">AD26*AD28</f>
+      <c r="AE27">
+        <f t="shared" ref="AE27:AJ27" si="3">AE26*AE28</f>
         <v>0.83730158730158721</v>
       </c>
-      <c r="AE27">
+      <c r="AF27">
         <f t="shared" si="3"/>
         <v>0.66922680104070109</v>
       </c>
-      <c r="AF27">
+      <c r="AG27">
         <f t="shared" si="3"/>
         <v>0.22456310679611652</v>
       </c>
-      <c r="AG27">
+      <c r="AH27">
         <f t="shared" si="3"/>
         <v>0.83697478991596641</v>
       </c>
-      <c r="AH27">
+      <c r="AI27">
         <f t="shared" si="3"/>
         <v>0.3151752141810138</v>
       </c>
-      <c r="AI27">
+      <c r="AJ27">
         <f t="shared" si="3"/>
         <v>0.26267144103567081</v>
       </c>
-      <c r="AJ27">
-        <f t="shared" ref="AJ27:AP27" si="4">AJ26*AJ28</f>
+      <c r="AK27">
+        <f t="shared" ref="AK27:AQ27" si="4">AK26*AK28</f>
         <v>0.05</v>
       </c>
-      <c r="AK27">
+      <c r="AL27">
         <f t="shared" si="4"/>
         <v>0.49782726778924496</v>
       </c>
-      <c r="AL27">
+      <c r="AM27">
         <f t="shared" si="4"/>
         <v>0.38179974651457538</v>
       </c>
-      <c r="AM27">
+      <c r="AN27">
         <f t="shared" si="4"/>
         <v>0.36876697447039652</v>
       </c>
-      <c r="AN27">
+      <c r="AO27">
         <f t="shared" si="4"/>
         <v>0.71482889733840294</v>
       </c>
-      <c r="AO27">
+      <c r="AP27">
         <f t="shared" si="4"/>
         <v>0.20179250407387286</v>
       </c>
-      <c r="AP27">
+      <c r="AQ27">
         <f t="shared" si="4"/>
         <v>0.2679123664674995</v>
       </c>
-      <c r="AQ27">
-        <f t="shared" ref="AQ27" si="5">AQ26*AQ28</f>
+      <c r="AR27">
+        <f t="shared" ref="AR27" si="5">AR26*AR28</f>
         <v>0.69490787112353047</v>
       </c>
-      <c r="AR27">
-        <f t="shared" ref="AR27" si="6">AR26*AR28</f>
+      <c r="AS27">
+        <f t="shared" ref="AS27" si="6">AS26*AS28</f>
         <v>0.79905920192766811</v>
       </c>
-      <c r="AS27">
-        <f t="shared" ref="AS27" si="7">AS26*AS28</f>
+      <c r="AT27">
+        <f t="shared" ref="AT27" si="7">AT26*AT28</f>
         <v>0.30420864788292573</v>
       </c>
-      <c r="AT27">
-        <f t="shared" ref="AT27" si="8">AT26*AT28</f>
-        <v>1</v>
-      </c>
       <c r="AU27">
-        <f t="shared" ref="AU27" si="9">AU26*AU28</f>
+        <f t="shared" ref="AU27" si="8">AU26*AU28</f>
+        <v>1</v>
+      </c>
+      <c r="AV27">
+        <f t="shared" ref="AV27" si="9">AV26*AV28</f>
         <v>4.9394949939957369E-2</v>
       </c>
-      <c r="AV27">
-        <f t="shared" ref="AV27" si="10">AV26*AV28</f>
+      <c r="AW27">
+        <f t="shared" ref="AW27" si="10">AW26*AW28</f>
         <v>0.55459913637218972</v>
       </c>
-      <c r="AW27">
-        <f t="shared" ref="AW27" si="11">AW26*AW28</f>
+      <c r="AX27">
+        <f t="shared" ref="AX27" si="11">AX26*AX28</f>
         <v>0.15568180832003681</v>
       </c>
-      <c r="AX27" s="3">
-        <v>1</v>
-      </c>
       <c r="AY27" s="3">
         <v>1</v>
       </c>
@@ -5605,190 +5720,193 @@
       <c r="BE27" s="3">
         <v>1</v>
       </c>
+      <c r="BF27" s="3">
+        <v>1</v>
+      </c>
     </row>
-    <row r="28" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>52</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="C28">
-        <f>C13</f>
+        <v>77</v>
+      </c>
+      <c r="C28" t="s">
+        <v>129</v>
+      </c>
+      <c r="D28">
+        <f>D13</f>
         <v>0.14172945107056739</v>
       </c>
-      <c r="D28">
-        <f t="shared" ref="D28:O28" si="12">D13</f>
+      <c r="E28">
+        <f t="shared" ref="E28:P28" si="12">E13</f>
         <v>0.51638200357044783</v>
       </c>
-      <c r="E28">
+      <c r="F28">
         <f t="shared" si="12"/>
         <v>0.15806110856797445</v>
       </c>
-      <c r="F28">
+      <c r="G28">
         <f t="shared" si="12"/>
         <v>0.53202659139120434</v>
       </c>
-      <c r="G28">
+      <c r="H28">
         <f t="shared" si="12"/>
         <v>0.15752669706599776</v>
       </c>
-      <c r="H28">
+      <c r="I28">
         <f t="shared" si="12"/>
         <v>0.39425547716301523</v>
       </c>
-      <c r="I28">
+      <c r="J28">
         <f t="shared" si="12"/>
         <v>0.50472537195234723</v>
       </c>
-      <c r="J28">
+      <c r="K28">
         <f t="shared" si="12"/>
         <v>0.63019570573053396</v>
       </c>
-      <c r="K28">
+      <c r="L28">
         <f t="shared" si="12"/>
         <v>0.60509523605184734</v>
       </c>
-      <c r="L28">
+      <c r="M28">
         <f t="shared" si="12"/>
         <v>0.89504964340651649</v>
       </c>
-      <c r="M28">
+      <c r="N28">
         <f t="shared" si="12"/>
         <v>0.8704383680555553</v>
       </c>
-      <c r="N28">
+      <c r="O28">
         <f t="shared" si="12"/>
         <v>0.56528344645635553</v>
       </c>
-      <c r="O28">
+      <c r="P28">
         <f t="shared" si="12"/>
         <v>0.92763157894736858</v>
       </c>
-      <c r="P28">
-        <v>0.46468986111111116</v>
-      </c>
       <c r="Q28">
+        <v>0.46468986111111099</v>
+      </c>
+      <c r="R28">
         <v>0.51031225694444438</v>
       </c>
-      <c r="R28">
+      <c r="S28">
         <v>0.52973999999999988</v>
       </c>
-      <c r="S28">
+      <c r="T28">
         <v>0.45403111111111122</v>
       </c>
-      <c r="T28">
+      <c r="U28">
         <v>0.52557581249999985</v>
-      </c>
-      <c r="U28">
-        <v>0.54629152777777779</v>
       </c>
       <c r="V28">
         <v>0.54629152777777779</v>
       </c>
       <c r="W28">
+        <v>0.54629152777777779</v>
+      </c>
+      <c r="X28">
         <v>0.36465800000000009</v>
       </c>
-      <c r="X28">
+      <c r="Y28">
         <v>0.54168452777777776</v>
       </c>
-      <c r="Y28" s="3">
+      <c r="Z28" s="3">
         <v>0.471655328798186</v>
       </c>
-      <c r="Z28" s="3">
-        <v>1</v>
-      </c>
       <c r="AA28" s="3">
+        <v>1</v>
+      </c>
+      <c r="AB28" s="3">
         <v>0.53911564625850339</v>
       </c>
-      <c r="AB28" s="3">
+      <c r="AC28" s="3">
         <v>0.58106575963718821</v>
       </c>
-      <c r="AC28" s="3">
+      <c r="AD28" s="3">
         <v>0.55328798185941042</v>
       </c>
-      <c r="AD28" s="3">
+      <c r="AE28" s="3">
         <v>0.83730158730158721</v>
       </c>
-      <c r="AE28" s="3">
-        <f>AE21</f>
+      <c r="AF28" s="3">
+        <f>AF21</f>
         <v>0.97563025210084031</v>
       </c>
-      <c r="AF28" s="3">
-        <f t="shared" ref="AF28:AI28" si="13">AF21</f>
-        <v>1</v>
-      </c>
       <c r="AG28" s="3">
+        <f t="shared" ref="AG28:AJ28" si="13">AG21</f>
+        <v>1</v>
+      </c>
+      <c r="AH28" s="3">
         <f t="shared" si="13"/>
         <v>0.83697478991596641</v>
       </c>
-      <c r="AH28" s="3">
+      <c r="AI28" s="3">
         <f t="shared" si="13"/>
         <v>0.754621848739496</v>
       </c>
-      <c r="AI28" s="3">
+      <c r="AJ28" s="3">
         <f t="shared" si="13"/>
         <v>0.62016806722689077</v>
       </c>
-      <c r="AJ28">
-        <f>AJ22</f>
-        <v>1</v>
-      </c>
       <c r="AK28">
-        <f t="shared" ref="AK28:AP28" si="14">AK22</f>
+        <f>AK22</f>
+        <v>1</v>
+      </c>
+      <c r="AL28">
+        <f t="shared" ref="AL28:AQ28" si="14">AL22</f>
         <v>0.77439797211660322</v>
       </c>
-      <c r="AL28">
+      <c r="AM28">
         <f t="shared" si="14"/>
         <v>0.56147021546261078</v>
       </c>
-      <c r="AM28">
+      <c r="AN28">
         <f t="shared" si="14"/>
         <v>0.83269961977186313</v>
       </c>
-      <c r="AN28">
+      <c r="AO28">
         <f t="shared" si="14"/>
         <v>0.71482889733840294</v>
       </c>
-      <c r="AO28">
+      <c r="AP28">
         <f t="shared" si="14"/>
         <v>0.94169835234474009</v>
       </c>
-      <c r="AP28">
+      <c r="AQ28">
         <f t="shared" si="14"/>
         <v>0.64892268694550059</v>
       </c>
-      <c r="AQ28">
-        <f>AQ23</f>
+      <c r="AR28">
+        <f>AR23</f>
         <v>0.78797083839611193</v>
       </c>
-      <c r="AR28">
-        <f t="shared" ref="AR28:AW28" si="15">AR23</f>
+      <c r="AS28">
+        <f t="shared" ref="AS28:AX28" si="15">AS23</f>
         <v>0.81206966383151069</v>
       </c>
-      <c r="AS28">
+      <c r="AT28">
         <f t="shared" si="15"/>
         <v>0.92831105710814099</v>
       </c>
-      <c r="AT28">
-        <f t="shared" si="15"/>
-        <v>1</v>
-      </c>
       <c r="AU28">
         <f t="shared" si="15"/>
-        <v>0.98541919805589306</v>
+        <v>1</v>
       </c>
       <c r="AV28">
         <f t="shared" si="15"/>
-        <v>0.87140542729850157</v>
+        <v>0.98541919805589306</v>
       </c>
       <c r="AW28">
         <f t="shared" si="15"/>
+        <v>0.87140542729850157</v>
+      </c>
+      <c r="AX28">
+        <f t="shared" si="15"/>
         <v>0.89712434183880108</v>
       </c>
-      <c r="AX28" s="3">
-        <v>1</v>
-      </c>
       <c r="AY28" s="3">
         <v>1</v>
       </c>
@@ -5810,16 +5928,19 @@
       <c r="BE28" s="3">
         <v>1</v>
       </c>
+      <c r="BF28" s="3">
+        <v>1</v>
+      </c>
     </row>
-    <row r="29" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>59</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C29">
-        <v>1</v>
+      <c r="C29" t="s">
+        <v>89</v>
       </c>
       <c r="D29">
         <v>1</v>
@@ -5884,7 +6005,7 @@
       <c r="X29">
         <v>1</v>
       </c>
-      <c r="Y29" s="3">
+      <c r="Y29">
         <v>1</v>
       </c>
       <c r="Z29" s="3">
@@ -5983,16 +6104,19 @@
       <c r="BE29" s="3">
         <v>1</v>
       </c>
+      <c r="BF29" s="3">
+        <v>1</v>
+      </c>
     </row>
-    <row r="30" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>53</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C30">
-        <v>1</v>
+      <c r="C30" t="s">
+        <v>89</v>
       </c>
       <c r="D30">
         <v>1</v>
@@ -6057,7 +6181,7 @@
       <c r="X30">
         <v>1</v>
       </c>
-      <c r="Y30" s="3">
+      <c r="Y30">
         <v>1</v>
       </c>
       <c r="Z30" s="3">
@@ -6156,16 +6280,19 @@
       <c r="BE30" s="3">
         <v>1</v>
       </c>
+      <c r="BF30" s="3">
+        <v>1</v>
+      </c>
     </row>
-    <row r="31" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>54</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="C31">
-        <v>1</v>
+        <v>78</v>
+      </c>
+      <c r="C31" t="s">
+        <v>89</v>
       </c>
       <c r="D31">
         <v>1</v>
@@ -6230,7 +6357,7 @@
       <c r="X31">
         <v>1</v>
       </c>
-      <c r="Y31" s="3">
+      <c r="Y31">
         <v>1</v>
       </c>
       <c r="Z31" s="3">
@@ -6329,16 +6456,19 @@
       <c r="BE31" s="3">
         <v>1</v>
       </c>
+      <c r="BF31" s="3">
+        <v>1</v>
+      </c>
     </row>
-    <row r="32" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>55</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="C32">
-        <v>1</v>
+        <v>79</v>
+      </c>
+      <c r="C32" t="s">
+        <v>89</v>
       </c>
       <c r="D32">
         <v>1</v>
@@ -6403,7 +6533,7 @@
       <c r="X32">
         <v>1</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Y32">
         <v>1</v>
       </c>
       <c r="Z32" s="3">
@@ -6502,16 +6632,19 @@
       <c r="BE32" s="3">
         <v>1</v>
       </c>
+      <c r="BF32" s="3">
+        <v>1</v>
+      </c>
     </row>
-    <row r="33" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>56</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C33">
-        <v>1</v>
+        <v>80</v>
+      </c>
+      <c r="C33" t="s">
+        <v>89</v>
       </c>
       <c r="D33">
         <v>1</v>
@@ -6576,7 +6709,7 @@
       <c r="X33">
         <v>1</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Y33">
         <v>1</v>
       </c>
       <c r="Z33" s="3">
@@ -6675,16 +6808,19 @@
       <c r="BE33" s="3">
         <v>1</v>
       </c>
+      <c r="BF33" s="3">
+        <v>1</v>
+      </c>
     </row>
-    <row r="34" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>57</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="C34">
-        <v>1</v>
+        <v>81</v>
+      </c>
+      <c r="C34" t="s">
+        <v>89</v>
       </c>
       <c r="D34">
         <v>1</v>
@@ -6749,7 +6885,7 @@
       <c r="X34">
         <v>1</v>
       </c>
-      <c r="Y34" s="3">
+      <c r="Y34">
         <v>1</v>
       </c>
       <c r="Z34" s="3">
@@ -6848,16 +6984,19 @@
       <c r="BE34" s="3">
         <v>1</v>
       </c>
+      <c r="BF34" s="3">
+        <v>1</v>
+      </c>
     </row>
-    <row r="35" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>58</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="C35">
-        <v>1</v>
+        <v>82</v>
+      </c>
+      <c r="C35" t="s">
+        <v>89</v>
       </c>
       <c r="D35">
         <v>1</v>
@@ -6922,7 +7061,7 @@
       <c r="X35">
         <v>1</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Y35">
         <v>1</v>
       </c>
       <c r="Z35" s="3">
@@ -7021,16 +7160,19 @@
       <c r="BE35" s="3">
         <v>1</v>
       </c>
+      <c r="BF35" s="3">
+        <v>1</v>
+      </c>
     </row>
-    <row r="36" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>60</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="C36">
-        <v>1</v>
+        <v>83</v>
+      </c>
+      <c r="C36" t="s">
+        <v>89</v>
       </c>
       <c r="D36">
         <v>1</v>
@@ -7095,7 +7237,7 @@
       <c r="X36">
         <v>1</v>
       </c>
-      <c r="Y36" s="3">
+      <c r="Y36">
         <v>1</v>
       </c>
       <c r="Z36" s="3">
@@ -7194,16 +7336,19 @@
       <c r="BE36" s="3">
         <v>1</v>
       </c>
+      <c r="BF36" s="3">
+        <v>1</v>
+      </c>
     </row>
-    <row r="37" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>61</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="C37">
-        <v>1</v>
+        <v>84</v>
+      </c>
+      <c r="C37" t="s">
+        <v>89</v>
       </c>
       <c r="D37">
         <v>1</v>
@@ -7268,7 +7413,7 @@
       <c r="X37">
         <v>1</v>
       </c>
-      <c r="Y37" s="3">
+      <c r="Y37">
         <v>1</v>
       </c>
       <c r="Z37" s="3">
@@ -7367,17 +7512,20 @@
       <c r="BE37" s="3">
         <v>1</v>
       </c>
+      <c r="BF37" s="3">
+        <v>1</v>
+      </c>
     </row>
-    <row r="38" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>62</v>
       </c>
       <c r="B38" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C38" t="s">
         <v>89</v>
       </c>
-      <c r="C38">
-        <v>1</v>
-      </c>
       <c r="D38">
         <v>1</v>
       </c>
@@ -7441,7 +7589,7 @@
       <c r="X38">
         <v>1</v>
       </c>
-      <c r="Y38" s="3">
+      <c r="Y38">
         <v>1</v>
       </c>
       <c r="Z38" s="3">
@@ -7540,16 +7688,19 @@
       <c r="BE38" s="3">
         <v>1</v>
       </c>
+      <c r="BF38" s="3">
+        <v>1</v>
+      </c>
     </row>
-    <row r="39" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>63</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="C39">
-        <v>1</v>
+        <v>86</v>
+      </c>
+      <c r="C39" t="s">
+        <v>89</v>
       </c>
       <c r="D39">
         <v>1</v>
@@ -7614,7 +7765,7 @@
       <c r="X39">
         <v>1</v>
       </c>
-      <c r="Y39" s="3">
+      <c r="Y39">
         <v>1</v>
       </c>
       <c r="Z39" s="3">
@@ -7713,16 +7864,19 @@
       <c r="BE39" s="3">
         <v>1</v>
       </c>
+      <c r="BF39" s="3">
+        <v>1</v>
+      </c>
     </row>
-    <row r="40" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>64</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="C40">
-        <v>1</v>
+        <v>87</v>
+      </c>
+      <c r="C40" t="s">
+        <v>89</v>
       </c>
       <c r="D40">
         <v>1</v>
@@ -7787,7 +7941,7 @@
       <c r="X40">
         <v>1</v>
       </c>
-      <c r="Y40" s="3">
+      <c r="Y40">
         <v>1</v>
       </c>
       <c r="Z40" s="3">
@@ -7886,16 +8040,19 @@
       <c r="BE40" s="3">
         <v>1</v>
       </c>
+      <c r="BF40" s="3">
+        <v>1</v>
+      </c>
     </row>
-    <row r="41" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>65</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="C41">
-        <v>1</v>
+        <v>88</v>
+      </c>
+      <c r="C41" t="s">
+        <v>89</v>
       </c>
       <c r="D41">
         <v>1</v>
@@ -7960,7 +8117,7 @@
       <c r="X41">
         <v>1</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Y41">
         <v>1</v>
       </c>
       <c r="Z41" s="3">
@@ -8057,6 +8214,9 @@
         <v>1</v>
       </c>
       <c r="BE41" s="3">
+        <v>1</v>
+      </c>
+      <c r="BF41" s="3">
         <v>1</v>
       </c>
     </row>
